--- a/DDAf_2023_Liste_des_indicateurs.xlsx
+++ b/DDAf_2023_Liste_des_indicateurs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>

--- a/DDAf_2023_Liste_des_indicateurs.xlsx
+++ b/DDAf_2023_Liste_des_indicateurs.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D002E746-6D7B-4027-80CD-4A781B03A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605848D4-69DC-43A1-8ABB-5CD0F83B1928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{D7DF0901-4433-4405-9CCC-BE5C1353FD37}"/>
+    <workbookView xWindow="30510" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{1AC1366E-B1B5-42D0-B996-967E54E0C931}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -4470,7 +4470,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{4A466605-2A0A-4437-AFD0-DB8858BC79D4}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{D1F28EEE-64B5-4751-8ADB-6D2893BDF638}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
@@ -4488,25 +4488,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C587B37-EDDF-4122-9622-24AB39B76246}" name="Table5" displayName="Table5" ref="B3:R338" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A980C38-DE59-465C-A4E5-2EB084EFE47B}" name="Table5" displayName="Table5" ref="B3:R338" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{7A82B762-005C-4A2F-8BC3-7F3E42B71380}" name="Code" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{E0D8A59C-5508-438E-97D9-140A78FAE0BD}" name="Tableau" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{EDA10CC5-6AC6-4593-A91C-BCCEFEFD3619}" name="Nom de l'indicateur" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6BD8DCC4-2313-4DE5-985A-D5CE4CFCB132}" name="Déscription de l'indicateur" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{F8517F88-2457-4D50-9375-32FCA0E6C167}" name="Unité de mesure" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{5306AE2D-9E79-4843-BC52-F59691757B42}" name="Échelle" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{EA6020EB-6C75-4796-8283-1493D8ADE9FC}" name="Calcul utilisé dans l'agrégation" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{625BEBE1-3899-4A85-BC14-90C81E88E316}" name="Pondération utilisé dans l'agrégation" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{2DDC4B9F-DA8C-46E5-9267-181AA69A6A4D}" name="Années couvertes par les données" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{1D71A410-2EA8-446F-B973-CE7E22D92F5A}" name="Année de référence pour la couverture des données" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{DAB1FD82-222E-41DE-ACAD-249B0521269F}" name="Couverture des données -% des pays africains" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{409C403D-4420-42E3-B126-DB5CAE438FBD}" name="Couverture des données -% de la population des pays africains" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{57133FC7-1251-40EE-AF30-1D54D9B1FA5F}" name="Couverture des données -% du PIB (en dollars PPA) des pays africains" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{C9CE9EAB-A1C3-48DC-B7E0-2E98BC2A3964}" name="Couverture des données -% de pays non africains" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{F00C3842-9D0F-4C4B-914F-8F6683311FCE}" name="Couverture des données -% de la population des pays non africains" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{6E462601-D6A9-4FD7-9EC6-A85396EBA832}" name="Couverture des données -% du PIB en dollars PPA des pays non africains" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{FCD83F7A-6B05-48C2-BD6D-59FB5EB3B0F0}" name="Source" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3B8D3670-D1A7-4675-98AA-2C8D2783AEAA}" name="Code" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{95AE4570-7B19-400D-B60D-A7B304EA51C4}" name="Tableau" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{2E6F23A8-F976-42A2-9F90-F48EFD82B59E}" name="Nom de l'indicateur" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8FA7DC94-1893-41F8-961D-CF272F4885A4}" name="Déscription de l'indicateur" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{3C21AB51-687A-4130-AA54-97CAEBE248E1}" name="Unité de mesure" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{5D8A8BC6-B8AB-4C09-82C3-909FF3B0FFAA}" name="Échelle" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{F96B66B2-FF91-4920-9BD9-6FB5746ABEF4}" name="Calcul utilisé dans l'agrégation" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{94D1B3D8-574F-48ED-A92E-393243118F45}" name="Pondération utilisé dans l'agrégation" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{C3B2A779-DFF7-4E7D-A907-10E7DE9A45FD}" name="Années couvertes par les données" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{83727361-92CA-41D5-8ACA-0565DA6F2A96}" name="Année de référence pour la couverture des données" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{F009CAA0-79B3-41A6-B9F6-8DB69DA02404}" name="Couverture des données -% des pays africains" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{C5117CF9-0E5A-42BF-80DC-AC83CEC892EA}" name="Couverture des données -% de la population des pays africains" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{1935AE66-AA9D-46DB-8208-EBE003E4A8D1}" name="Couverture des données -% du PIB (en dollars PPA) des pays africains" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{98F8601C-D6B9-4E13-9DA0-D948DF8B8208}" name="Couverture des données -% de pays non africains" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{FD6E6D41-84EA-4C0F-9EA9-04FE6478CF23}" name="Couverture des données -% de la population des pays non africains" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{6031BD13-AED2-4522-878C-142E0BB74390}" name="Couverture des données -% du PIB en dollars PPA des pays non africains" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{1974F56F-E829-48E9-BBDE-DC5A00B3D66A}" name="Source" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4808,8 +4808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AF5D0D-07C2-4D99-9F0E-2B369456AEE4}">
-  <sheetPr codeName="Sheet21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C553308-6B0E-42F1-AC72-FEBF0B3BA1FD}">
   <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
@@ -23084,9 +23083,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B340" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{6396442F-BD66-4552-9111-281CD7E48983}"/>
-    <hyperlink ref="B342" r:id="rId2" xr:uid="{A8A7E0D7-13B9-4CEB-A8C6-699DBDC4C3BD}"/>
-    <hyperlink ref="B343" r:id="rId3" xr:uid="{C0DF4A01-7086-47C6-8B73-91BCA2BBF955}"/>
+    <hyperlink ref="B340" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr." xr:uid="{97598570-6BDD-4803-9E8E-DBB6E7BAFF6C}"/>
+    <hyperlink ref="B342" r:id="rId2" xr:uid="{09987593-6C6C-4D2F-97BC-A120B0742F95}"/>
+    <hyperlink ref="B343" r:id="rId3" xr:uid="{A701A6CE-D046-40C3-8AAC-8AFC6B3B8F54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/DDAf_2023_Liste_des_indicateurs.xlsx
+++ b/DDAf_2023_Liste_des_indicateurs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF6425B-842E-4A49-B96E-7C1E9CE3EB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9AC1CC-CA50-4B09-914D-BA6745A1C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C5F68212-9778-486A-8C92-6D2EEFBEFFBE}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{6B3382F4-6913-42B4-98DA-EC518DA1F53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -4865,7 +4865,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{A8110E47-B4F4-46AE-9B2B-B3E202E43824}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{C2AA15E6-1B65-4E99-BBA7-A45DF5FD3EC8}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
@@ -4883,25 +4883,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D25736C3-0EE8-4A9F-A632-0CA746FB2EC5}" name="Table5" displayName="Table5" ref="B3:R366" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3FDAB02-68E0-4B05-A4FA-3B339EC1D509}" name="Table5" displayName="Table5" ref="B3:R366" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{632EDBDF-3540-46A8-8AF9-36D17C4465D2}" name="Code" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{29ABE96A-8C54-4FD3-8B08-41C69A08DA5C}" name="Tableau" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{FB85264C-030F-47F9-8BF7-A199F912FCFB}" name="Nom de l'indicateur" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{21AC0D53-2073-4934-9287-91CB4B63D0F2}" name="Déscription de l'indicateur" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{A0ACC1E6-C5C3-4ECA-9922-06C7DBF442C0}" name="Unité de mesure" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{0CC53125-3642-4EA7-81A2-7587D9F83408}" name="Échelle" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{F911EEFF-64AC-493E-87BA-131FFCAAA033}" name="Calcul utilisé dans l'agrégation" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{FEE4EB47-BD79-4649-B9CC-CA0DC89B3F33}" name="Pondération utilisé dans l'agrégation" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{3274859B-5D77-4CE1-B1A4-A86B3EDF8E98}" name="Années couvertes par les données" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{548D8E11-17F5-44B1-ABBE-A5EF874E4666}" name="Année de référence pour la couverture des données" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{8D7F43E8-6BA8-4704-B178-8F676DC0A102}" name="Couverture des données -% des pays africains" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{35C42AF0-84AB-41F6-86F2-6494015DB662}" name="Couverture des données -% de la population des pays africains" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{3077BFB2-EBB0-4816-B1AA-102639E61161}" name="Couverture des données -% du PIB (en dollars PPA) des pays africains" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{97724B3C-0B34-4BB7-AB51-DF97267B4736}" name="Couverture des données -% de pays non africains" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{4F4C3A1B-A6CA-4F5A-A7B1-75BB2AE5B5F7}" name="Couverture des données -% de la population des pays non africains" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{20705957-C746-4B5E-945E-1295DCE89DEA}" name="Couverture des données -% du PIB en dollars PPA des pays non africains" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{E820D8EB-E18E-45F5-9D6B-3B55D2F2D4C7}" name="Source" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{416D0B03-01A4-469A-97D3-0664C7375CA7}" name="Code" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{AF3A3F9B-5B4E-4CC3-A01D-93C72791AC38}" name="Tableau" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{AB8A0B9C-6C73-4305-BC0E-F42A81131D6E}" name="Nom de l'indicateur" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{85311A6E-D7F4-4109-8691-27E406206639}" name="Déscription de l'indicateur" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{80CB84EE-EE8A-4E10-A896-3FCC131DE40B}" name="Unité de mesure" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{23594D6D-626E-43B9-9D29-643F7476973A}" name="Échelle" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{3CCEEA5F-05D7-47E7-A6C0-165834B04A08}" name="Calcul utilisé dans l'agrégation" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{F46CB5FC-07AA-4F2A-9DC0-425C53088948}" name="Pondération utilisé dans l'agrégation" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{27AFB887-BD65-4BC9-AD5E-CF5C2BEF483F}" name="Années couvertes par les données" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{D0DB3E5A-3BE9-4447-8B94-34EB131E5E9F}" name="Année de référence pour la couverture des données" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{CD242635-BDBC-413B-A0F4-CA170D888A21}" name="Couverture des données -% des pays africains" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{0BE0259B-3DF8-46A6-ADD6-88F94D8356B0}" name="Couverture des données -% de la population des pays africains" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{C663A5AD-1D0E-46EC-BB1E-D9B2DB3EE82D}" name="Couverture des données -% du PIB (en dollars PPA) des pays africains" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{29CE3591-D46C-47E1-829D-715B050567E2}" name="Couverture des données -% de pays non africains" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{BD757BE9-1AE9-4C6B-ABF3-712CB495317F}" name="Couverture des données -% de la population des pays non africains" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{B8C152B9-2854-42EA-A054-DFF371367BF7}" name="Couverture des données -% du PIB en dollars PPA des pays non africains" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{6E2F1BAE-9DD5-4FEC-B7EA-7DE9C2B0349C}" name="Source" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5203,7 +5203,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA31423-B34F-42EA-89DA-246667D0DFF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BD04F2-4FF7-4506-AFA0-8C4ABD56A3F0}">
   <dimension ref="A1:R369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -24592,8 +24592,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B369" r:id="rId1" xr:uid="{38917F0E-B0AF-413E-93BF-1CF38D44F228}"/>
-    <hyperlink ref="B368" r:id="rId2" xr:uid="{BCF7A74D-0A9E-456E-A39A-B3EB0DDFC3EF}"/>
+    <hyperlink ref="B369" r:id="rId1" xr:uid="{FA57A1D1-302C-468A-8D7E-3BE28CD206B3}"/>
+    <hyperlink ref="B368" r:id="rId2" xr:uid="{40D4DE08-5597-4339-B59C-8B49D55D5BC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/DDAf_2023_Liste_des_indicateurs.xlsx
+++ b/DDAf_2023_Liste_des_indicateurs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9AC1CC-CA50-4B09-914D-BA6745A1C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB60FE-297C-4377-92F6-AD33E124F6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{6B3382F4-6913-42B4-98DA-EC518DA1F53F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{E322EACC-BAEB-4121-A754-88815FE31E8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicateurs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indicateurs!$A$4:$A$338</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3963" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="1197">
   <si>
     <t>Liste des indicateurs, descriptions et détails</t>
   </si>
@@ -241,7 +241,7 @@
     <t>2013-22 maximum</t>
   </si>
   <si>
-    <t>Indicateurs du développement mondial (données des banques centrales, des agences nationales et des bureaux nationaux de la BM - mise à jour 22/12/2022)</t>
+    <t>Indicateurs du développement mondial (données des banques centrales, des agences nationales et des bureaux nationaux de la BM - mise à jour 10/10/2023)</t>
   </si>
   <si>
     <t>PovHC215</t>
@@ -1029,7 +1029,7 @@
     <t>2005-2020</t>
   </si>
   <si>
-    <t>Centre de données en ligne UNCTADStat (consulté le 21/12/2022)</t>
+    <t>Centre de données en ligne UNCTADStat (consulté le 22/09/2023)</t>
   </si>
   <si>
     <t>ExpICTSrvPrp</t>
@@ -1686,7 +1686,7 @@
 Pour plus d'informations, consultez : www.imf.org/external/pubs/ft/bop/2017/pdf/Guidefra.pdf</t>
   </si>
   <si>
-    <t>FMI - Statistiques de la balance des paiements et de la position extérieure globale (BOP/IIP) (mis à jour le 19/12/2022)</t>
+    <t>FMI - Statistiques de la balance des paiements et de la position extérieure globale (BOP/IIP) (mis à jour le 25/10/2023)</t>
   </si>
   <si>
     <t>UNCTADFDIPGD</t>
@@ -1699,7 +1699,7 @@
 Ces chiffres correspondent à la définition de l’IDE. Ils figurent dans le Manuel de la balance des paiements : cinquième édition (MBP5) (Washington, Fonds monétaire international, 1993) et dans la Définition de référence détaillée de l’investissement direct étranger : troisième édition (BD3) (Paris, Organisation de coopération et de développement économiques, 1996). "IDE désigne un investissement réalisé pour acquérir un intérêt durable dans des entreprises exerçant des activités en dehors de l'économie de l'investisseur. En outre, en cas d'IDE, l'objectif de l'investisseur est de se faire entendre de manière efficace dans la gestion de l'entreprise. L'entité étrangère ou le groupe d'entités associées qui réalise l'investissement est appelé «investisseur direct». L'entreprise non constituée en société ou constituée en société - une succursale ou une filiale, respectivement, dans laquelle un investissement direct est réalisé - est appelée «entreprise d'investissement direct». La participation au capital est presque toujours associée au fait d'avoir une voix efficace dans la gestion d’une entreprise; le MBP5 suggère un seuil de 10% de participation au capital pour qualifier un investisseur d’investisseur direct étranger. " Pour plus d'informations, veuillez consulter : https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
   </si>
   <si>
-    <t>Centre de données en ligne de la CNUCED, Base de données en ligne sur l'IED (consulté le 25/08/2022)</t>
+    <t>Centre de données en ligne de la CNUCED, Base de données en ligne sur l'IED (mis à jour le 22/09/2023)</t>
   </si>
   <si>
     <t>PortfolioInFlPGD</t>
@@ -1732,7 +1732,7 @@
     <t>APD nette rapportée par le Comité d'évaluation du développement de l'OCDE, provenant de tous les donateurs, en % du PIB en dollars américains selon les Perspectives de l'économie mondiale. https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
   </si>
   <si>
-    <t>Aide publique au développement (APD) rapportée par le Comité d'aide au développement de l'OCDE (mise à jour 11/04/2023)</t>
+    <t>Aide publique au développement (APD) rapportée par le Comité d'aide au développement de l'OCDE (mise à jour 27/10/2023)</t>
   </si>
   <si>
     <t>RemitPGD</t>
@@ -1744,7 +1744,7 @@
     <t>Calculs du personnel de la Banque mondiale basés sur les données de la base de données du FMI sur la statistique de la balance des paiements et sur les données communiquées par les banques centrales, les agences nationales de statistique et les bureaux de pays de la Banque mondiale. Voir Migration and Development Brief 28, Annexe A pour plus de détails. Tous les chiffres sont en dollars courants (nominaux). Pour une discussion sur la définition des envois de fonds, voir Dilip Ratha, 2003, "Les envois de fonds des travailleurs : une source importante et stable de financement extérieur du développement", Global Development Finance 2003, Banque mondiale. Les données depuis 2005 sont basées sur les statistiques de la balance des paiements du FMI qui utilisent les définitions du MBP6 du FMI. Les données du PIB proviennent du WDI. Pour les dernières données et analyses sur les migrations et les envois de fonds, veuillez consulter : http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data</t>
   </si>
   <si>
-    <t>Banque mondiale-KNOMAD, Global Knowledge Partnership on Migration and Development (novembre 2022)</t>
+    <t>Banque mondiale-KNOMAD, Global Knowledge Partnership on Migration and Development (juin 2023)</t>
   </si>
   <si>
     <t>TotalFinInflowsPGD</t>
@@ -1839,7 +1839,7 @@
 Les calculs des données sont basés sur des indicateurs macro-budgétaires compilés à partir de sources telles que la base de données de l'OCDE, les données des comptes nationaux des Penn World Tables (PWT), Eurostat et les Perspectives de l'économie mondiale (WEO) du FMI. Pour plus d'informations, veuillez consulter : https://infrastructuregovern.imf.org/content/dam/PIMA/Knowledge-Hub/dataset/InvestmentandCapitalStockDatabaseUserManualandFAQ_May2022.pdf</t>
   </si>
   <si>
-    <t>IMF Investment and Capital Stock Dataset (IMF ICSD) (consulté le 20/12/2022)</t>
+    <t>IMF Investment and Capital Stock Dataset (IMF ICSD) (mis à jour le 15/06/2022)</t>
   </si>
   <si>
     <t>IPPPPGD</t>
@@ -2010,7 +2010,7 @@
     <t>Ratio des sommes</t>
   </si>
   <si>
-    <t>2001-2021</t>
+    <t>2001-2022</t>
   </si>
   <si>
     <t>ROIDebitLiab</t>
@@ -2725,7 +2725,7 @@
     <t>Les flux publics vers l'énergie solaire en millions de dollars US 2022 proviennent de l'outil de recherche de données en ligne IRENASTAT.
 Le solaire comprend le photovoltaïque (PV) (à la fois à grande échelle et à plus petite échelle comme le PV solaire sur les toits), l'énergie solaire concentrée et les systèmes de chauffage solaire (par exemple, les chauffe-eau solaires).
 Selon l'IRENA : les flux publics (2022 millions USD) sont les flux financiers sous forme d'engagements provenant d'institutions publiques telles que les gouvernements, les banques multilatérales de développement et d'autres institutions financières publiques. Un engagement est un contrat légal visant à mobiliser des fonds destinés à un ou plusieurs pays. Ces flux sont corrigés pour tenir compte des taux de change et de l'inflation à l'année de référence 2022. Ainsi, les chiffres pour toutes les années sont donnés en millions de dollars internationaux 2022. Ces flux incluent le plus d'informations possible, mais ne sont pas exhaustifs de tous les flux globaux issus d'institutions publiques.
-Données calculées à partir de la Base de données statistiques du CAD, 2022 (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
+Données calculées à partir de la Base de données statistiques du CAD (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
     <t>IRENASTAT Online Data Query Tool (extrait le 06/10/2022)</t>
@@ -2740,7 +2740,7 @@
     <t>Les flux publics vers l'énergie éolienne en millions de dollars US 2022 proviennent de l'outil de recherche de données en ligne IRENASTAT.
 L'éolien comprend à la fois l'éolien terrestre et offshore.
 Selon l'IRENA : les flux publics (2022 millions USD) sont les flux financiers sous forme d'engagements provenant d'institutions publiques telles que les gouvernements, les banques multilatérales de développement et d'autres institutions financières publiques. Un engagement est un contrat légal visant à mobiliser des fonds destinés à un ou plusieurs pays. Ces flux sont corrigés pour tenir compte des taux de change et de l'inflation à une année de référence. Dans notre cas, ce sont des dollars internationaux 2019, résultant en millions de dollars US 2019. Ces flux incluent le plus d'informations possible, mais ne sont pas exhaustifs de tous les flux globaux issus d'institutions publiques.
-Données calculées à partir de la Base de données statistiques du CAD, 2022 (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
+Données calculées à partir de la Base de données statistiques du CAD (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
     <t>PUBFINGEO</t>
@@ -2751,7 +2751,7 @@
   <si>
     <t>Les flux publics vers l'énergie géothermique en millions de dollars US 2022 proviennent de l'outil de recherche de données en ligne IRENASTAT.
 Selon l'IRENA : les flux publics (2022 millions USD) sont les flux financiers sous forme d'engagements provenant d'institutions publiques telles que les gouvernements, les banques multilatérales de développement et d'autres institutions financières publiques. Un engagement est un contrat légal visant à mobiliser des fonds destinés à un ou plusieurs pays. Ces flux sont corrigés pour tenir compte des taux de change et de l'inflation à une année de référence. Dans notre cas, ce sont des dollars internationaux 2019, résultant en millions de dollars US 2019. Ces flux incluent le plus d'informations possible, mais ne sont pas exhaustifs de tous les flux globaux issus d'institutions publiques.
-Données calculées à partir de la Base de données statistiques du CAD, 2022 (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
+Données calculées à partir de la Base de données statistiques du CAD (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
     <t>PUBFINHYDRO</t>
@@ -2762,7 +2762,7 @@
   <si>
     <t>Les flux publics vers l'énergie hydraulique en millions de dollars US 2022 proviennent de l'outil de recherche de données en ligne IRENASTAT.
 Selon l'IRENA : les flux publics (2022 millions USD) sont les flux financiers sous forme d'engagements provenant d'institutions publiques telles que les gouvernements, les banques multilatérales de développement et d'autres institutions financières publiques. Un engagement est un contrat légal visant à mobiliser des fonds destinés à un ou plusieurs pays. Ces flux sont corrigés pour tenir compte des taux de change et de l'inflation à une année de référence. Dans notre cas, ce sont des dollars internationaux 2019, résultant en millions de dollars US 2019. Ces flux incluent le plus d'informations possible, mais ne sont pas exhaustifs de tous les flux globaux issus d'institutions publiques.
-Données calculées à partir de la Base de données statistiques du CAD, 2022 (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
+Données calculées à partir de la Base de données statistiques du CAD (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
     <t>PUBFINBIOF</t>
@@ -2774,7 +2774,7 @@
     <t>Les flux publics vers les biocarburants en millions de dollars US 2022 proviennent de l'outil de recherche de données en ligne IRENASTAT.
 Les biocarburants incluent le biodiesel, le bioéthanol et le biométhane.
 Selon l'IRENA : les flux publics (2022 millions USD) sont les flux financiers sous forme d'engagements provenant d'institutions publiques telles que les gouvernements, les banques multilatérales de développement et d'autres institutions financières publiques. Un engagement est un contrat légal visant à mobiliser des fonds destinés à un ou plusieurs pays. Ces flux sont corrigés pour tenir compte des taux de change et de l'inflation à une année de référence. Dans notre cas, ce sont des dollars internationaux 2019, résultant en millions de dollars US 2019. Ces flux incluent le plus d'informations possible, mais ne sont pas exhaustifs de tous les flux globaux issus d'institutions publiques.
-Données calculées à partir de la Base de données statistiques du CAD, 2022 (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
+Données calculées à partir de la Base de données statistiques du CAD (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
     <t>PUBFINOTHREN</t>
@@ -2785,7 +2785,7 @@
   <si>
     <t>Les flux publics vers les énergies renouvelables n.s.a (non spécifiées ailleurs) en millions de dollars US 2022 proviennent de l'outil de recherche de données en ligne IRENASTAT.
 Selon l'IRENA : les flux publics (2022 millions USD) sont les flux financiers sous forme d'engagements provenant d'institutions publiques telles que les gouvernements, les banques multilatérales de développement et d'autres institutions financières publiques. Un engagement est un contrat légal visant à mobiliser des fonds destinés à un ou plusieurs pays. Ces flux sont corrigés pour tenir compte des taux de change et de l'inflation à une année de référence. Dans notre cas, ce sont des dollars internationaux 2019, résultant en millions de dollars US 2019. Ces flux incluent le plus d'informations possible, mais ne sont pas exhaustifs de tous les flux globaux issus d'institutions publiques.
-Données calculées à partir de la Base de données statistiques du CAD, 2022 (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
+Données calculées à partir de la Base de données statistiques du CAD (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
     <t>PUBFINNUCL</t>
@@ -2796,7 +2796,7 @@
   <si>
     <t>Les flux publics vers les énergies renouvelables en millions de dollars US 2022 proviennent de l'outil de recherche de données en ligne IRENASTAT.
 Selon l'IRENA : les flux publics (2022 millions USD) sont les flux financiers sous forme d'engagements provenant d'institutions publiques telles que les gouvernements, les banques multilatérales de développement et d'autres institutions financières publiques. Un engagement est un contrat légal visant à mobiliser des fonds destinés à un ou plusieurs pays. Ces flux sont corrigés pour tenir compte des taux de change et de l'inflation à une année de référence. Dans notre cas, ce sont des dollars internationaux 2019, résultant en millions de dollars US 2019. Ces flux incluent le plus d'informations possible, mais ne sont pas exhaustifs de tous les flux globaux issus d'institutions publiques.
-Données calculées à partir de la Base de données statistiques du CAD, 2022 (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
+Données calculées à partir de la Base de données statistiques du CAD (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
     <t>PUBFINFOSS</t>
@@ -2807,7 +2807,7 @@
   <si>
     <t>Les flux publics vers les combustibles fossiles en millions de dollars US 2022 proviennent de l'outil de recherche de données en ligne IRENASTAT.
 Selon l'IRENA : les flux publics (2022 millions USD) sont les flux financiers sous forme d'engagements provenant d'institutions publiques telles que les gouvernements, les banques multilatérales de développement et d'autres institutions financières publiques. Un engagement est un contrat légal visant à mobiliser des fonds destinés à un ou plusieurs pays. Ces flux sont corrigés pour tenir compte des taux de change et de l'inflation à une année de référence. Dans notre cas, ce sont des dollars internationaux 2019, résultant en millions de dollars US 2019. Ces flux incluent le plus d'informations possible, mais ne sont pas exhaustifs de tous les flux globaux issus d'institutions publiques.
-Données calculées à partir de la Base de données statistiques du CAD, 2022 (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
+Données calculées à partir de la Base de données statistiques du CAD (OCDE) et de la Base de données des finances publiques de l'IRENA. Pour plus d'informations, veuillez consulter : https://mc-cd8320d4-36a1-40ac-83cc-3389-cdn-endpoint.azureedge.net/-/media/Files/IRENA/Agency/Publication/2023/Feb/IRENA_Global_Landscape_Renewable_Energy_Finance_2023_Methodology.pdf?rev=aef90c7ec1864f8db755d109bc02ed77</t>
   </si>
   <si>
     <t>ELECCAPSOLAR</t>
@@ -4051,7 +4051,7 @@
     <t>Calculs de l'auteur basés sur les données publiées dans OCDE (2022), « Qualité de l'air et santé : Mortalité et coût en bien-être imputables à l'exposition à la pollution de l'air », OECD Environment Statistics (base de données) (consulté le 20 février 2023) https://doi.org/10.1787/c14fb169 -fr, en utilisant les données démographiques du World Population Prospects 2022 pour calculer les taux de mortalité par million d'habitants.
 Cet ensemble de données présente le nombre de décès prématurés attribués à des régimes riches en viande rouge chaque année, par million d'habitants.
 Manger de la viande présente de nombreux avantages connus pour la santé, mais l'OMS conseille aux gens de limiter leur consommation de viande transformée et de viande rouge, qui sont liées à des risques accrus de décès par maladie cardiaque, diabète et autres maladies. Dans le cas de la viande rouge, selon la méta-analyse des études épidémiologiques de l'OMS, il existe des corrélations positives entre la consommation de viande rouge et le développement d'un cancer colorectal. Il existe également des liens avec le cancer du pancréas et le cancer de la prostate. Le niveau de consommation de viande rouge le plus bas auquel les risques de mortalité ont été observés est de 18-27 gr/jour.
-En plus de l'impact d'une alimentation riche en viande rouge sur la santé humaine, la consommation de viande représente une charge importante pour l'environnement. La production, la transformation et la distribution de viande entraînent des changements dans l'utilisation des terres, une utilisation accrue d'eau douce, la pollution de l'eau, la pollution de l'air et des émissions de gaz à effet de serre. Parmi la gamme des produits animaliers, la viande rouge est potentiellement celui avec le plus grand impact sur l'environnement. Cependant, même les produits animaliers avec le plus faible impact dépassent généralement ceux des substituts végétaux, ce qui augmente l'importance d'un changement de régime alimentaire (Poore, J. et Nemecek, T., 20222).
+En plus de l'impact d'une alimentation riche en viande rouge sur la santé humaine, la consommation de viande représente une charge importante pour l'environnement. La production, la transformation et la distribution de viande entraînent des changements dans l'utilisation des terres, une utilisation accrue d'eau douce, la pollution de l'eau, la pollution de l'air et des émissions de gaz à effet de serre. Parmi la gamme des produits animaliers, la viande rouge est potentiellement celui avec le plus grand impact sur l'environnement. Cependant, même les produits animaliers avec le plus faible impact dépassent généralement ceux des substituts végétaux, ce qui augmente l'importance d'un changement de régime alimentaire (Poore, J. et Nemecek, T.2).
 L'exposition à un régime riche en viande rouge est définie comme une consommation quotidienne moyenne supérieure à 22,5 grammes par jour de viande rouge (bœuf, veau, porc, agneau, mouton, cheval et chèvre, excluant la volaille, le poisson, les œufs et toutes les viandes transformées). Les données alimentaires utilisées pour calculer l'exposition comprennent des enquêtes nutritionnelles représentatives au niveau national et infranational, des enquêtes sur le budget des ménages, des comptes de ventes nationales, ainsi que des bilans alimentaires et des comptes d'approvisionnement et d'utilisation de la FAO.
 Les données sur la mortalité et les DALY (ou EVCI, espérance de vie corrigée de l'incapacité) dues à l'exposition aux risques environnementaux sont tirées de GBD (2019), Global Burden of Disease Study 2019 Results. Les coûts de bien-être sont calculés à l'aide d'une méthodologie adaptée de l'OCDE (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 Pour plus de détails, veuillez consulter : https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
@@ -4066,7 +4066,7 @@
     <t>Calculs de l'auteur basés sur les données publiées dans OCDE (2022), « Qualité de l'air et santé : Mortalité et coût en bien-être imputables à l'exposition à la pollution de l'air », OECD Environment Statistics (base de données) (consulté le 20 février 2023) https://doi.org/10.1787/c14fb169 -fr, en utilisant les données démographiques du World Population Prospects 2022 pour calculer les taux de mortalité par million d'habitants.
 Cet ensemble de données présente le nombre de décès prématurés attribués à des régimes riches en viandes transformées chaque année, par million d'habitants.
 Manger de la viande présente de nombreux avantages connus pour la santé, mais l'OMS conseille aux gens de limiter leur consommation de viande transformée et de viande rouge, qui sont liées à des risques accrus de décès par maladie cardiaque, diabète et autres maladies. Dans le cas de la viande transformée, selon l'OMS, il existe suffisamment de preuves issues d'études épidémiologiques que la consommation de viande transformée provoque le cancer colorectal. Un lien avec le cancer de l'estomac a également été observé, mais les preuves ne sont pas concluantes. Le niveau le plus bas de consommation de viande transformée pour lequel des risques de mortalité ont été observés est de 0-4 gr/jour.
-En plus de l'impact d'une alimentation riche en viandes transformées sur la santé humaine, la consommation de viande représente une charge importante pour l'environnement. La production, la transformation et la distribution de viande entraînent des changements dans l'utilisation des terres, une utilisation accrue d'eau douce, la pollution de l'eau, la pollution de l'air et des émissions de gaz à effet de serre. Parmi la gamme des produits animaliers, la viande rouge est potentiellement celui avec le plus grand impact sur l'environnement. Cependant, même les produits animaliers avec le plus faible impact dépassent généralement ceux des substituts végétaux, ce qui augmente l'importance d'un changement de régime alimentaire (Poore, J. et Nemecek, T., 20222).
+En plus de l'impact d'une alimentation riche en viandes transformées sur la santé humaine, la consommation de viande représente une charge importante pour l'environnement. La production, la transformation et la distribution de viande entraînent des changements dans l'utilisation des terres, une utilisation accrue d'eau douce, la pollution de l'eau, la pollution de l'air et des émissions de gaz à effet de serre. Parmi la gamme des produits animaliers, la viande rouge est potentiellement celui avec le plus grand impact sur l'environnement. Cependant, même les produits animaliers avec le plus faible impact dépassent généralement ceux des substituts végétaux, ce qui augmente l'importance d'un changement de régime alimentaire (Poore, J. et Nemecek, T.2).
 L'exposition à une alimentation riche en viande transformée est définie comme une consommation quotidienne moyenne de plus de 2 grammes de viande conservée par fumage, séchage, salage ou addition de conservateurs chimiques. Les données alimentaires utilisées pour calculer l'exposition comprennent des enquêtes nutritionnelles représentatives au niveau national et infranational, des enquêtes sur le budget des ménages, des comptes de ventes nationales, ainsi que des bilans alimentaires et des comptes d'approvisionnement et d'utilisation de la FAO.
 Les données sur la mortalité et les DALY (ou EVCI, espérance de vie corrigée de l'incapacité) dues à l'exposition aux risques environnementaux sont tirées de GBD (2019), Global Burden of Disease Study 2019 Results. Les coûts de bien-être sont calculés à l'aide d'une méthodologie adaptée de l'OCDE (2017b), The Rising Cost of Ambient Air Pollution thus far in the 21st Century: Results from the BRIICS and the OECD Countries.
 Pour plus de détails, veuillez consulter : https://stats.oecd.org/wbos/fileview2.aspx?IDFile=1356df09-6bd4-4b0b-9a95-d56e145769ad</t>
@@ -4865,7 +4865,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{C2AA15E6-1B65-4E99-BBA7-A45DF5FD3EC8}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{D5B1C0E0-52D3-4D9A-841B-E330A35032DE}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
@@ -4883,25 +4883,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3FDAB02-68E0-4B05-A4FA-3B339EC1D509}" name="Table5" displayName="Table5" ref="B3:R366" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{583B5B1B-D9D6-4E91-8BDF-0EC51E958971}" name="Table5" displayName="Table5" ref="B3:R366" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="B3:R366" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{416D0B03-01A4-469A-97D3-0664C7375CA7}" name="Code" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AF3A3F9B-5B4E-4CC3-A01D-93C72791AC38}" name="Tableau" dataDxfId="0" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{AB8A0B9C-6C73-4305-BC0E-F42A81131D6E}" name="Nom de l'indicateur" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{85311A6E-D7F4-4109-8691-27E406206639}" name="Déscription de l'indicateur" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{80CB84EE-EE8A-4E10-A896-3FCC131DE40B}" name="Unité de mesure" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{23594D6D-626E-43B9-9D29-643F7476973A}" name="Échelle" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{3CCEEA5F-05D7-47E7-A6C0-165834B04A08}" name="Calcul utilisé dans l'agrégation" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{F46CB5FC-07AA-4F2A-9DC0-425C53088948}" name="Pondération utilisé dans l'agrégation" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{27AFB887-BD65-4BC9-AD5E-CF5C2BEF483F}" name="Années couvertes par les données" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{D0DB3E5A-3BE9-4447-8B94-34EB131E5E9F}" name="Année de référence pour la couverture des données" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{CD242635-BDBC-413B-A0F4-CA170D888A21}" name="Couverture des données -% des pays africains" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{0BE0259B-3DF8-46A6-ADD6-88F94D8356B0}" name="Couverture des données -% de la population des pays africains" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{C663A5AD-1D0E-46EC-BB1E-D9B2DB3EE82D}" name="Couverture des données -% du PIB (en dollars PPA) des pays africains" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{29CE3591-D46C-47E1-829D-715B050567E2}" name="Couverture des données -% de pays non africains" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{BD757BE9-1AE9-4C6B-ABF3-712CB495317F}" name="Couverture des données -% de la population des pays non africains" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{B8C152B9-2854-42EA-A054-DFF371367BF7}" name="Couverture des données -% du PIB en dollars PPA des pays non africains" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6E2F1BAE-9DD5-4FEC-B7EA-7DE9C2B0349C}" name="Source" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{6B64D86C-634C-405C-B32D-237EAA9D9D4D}" name="Code" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{80A7E435-8E8F-4D07-80C0-304DC7E82F38}" name="Tableau" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{22890250-7B16-4C4C-87B0-87BB81714FB8}" name="Nom de l'indicateur" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E084BB91-BDD7-4582-94BC-D47D8F1F7756}" name="Déscription de l'indicateur" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{E944144E-F7E1-4E9F-8E32-9147E1D7597E}" name="Unité de mesure" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{57BBC30A-B22A-4454-B456-A6132A4DBB4C}" name="Échelle" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{7B8EA08F-FD50-4857-97F5-FF5AF751A935}" name="Calcul utilisé dans l'agrégation" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{99E4DE56-EE75-4B4B-8B73-F8CF15E8B5A8}" name="Pondération utilisé dans l'agrégation" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{1894E02D-E3A6-4425-8AF5-F348E2D4FFA6}" name="Années couvertes par les données" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{29ED3DBC-E2A8-443B-AB45-D58FC8381708}" name="Année de référence pour la couverture des données" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A2F521E5-D696-486D-82E6-961A2F9AE600}" name="Couverture des données -% des pays africains" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{2E65C36E-4623-40A4-BC7C-109482FA73D4}" name="Couverture des données -% de la population des pays africains" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{C497CB13-2EE1-4191-BE84-AC09C1D45234}" name="Couverture des données -% du PIB (en dollars PPA) des pays africains" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A09F62BB-080F-4455-8413-AA8EEFD83EEB}" name="Couverture des données -% de pays non africains" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{C3707D66-5D32-473D-B9BD-E149B3C3051A}" name="Couverture des données -% de la population des pays non africains" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{BCFBDFA6-0457-4354-B70D-D22009D5A3E8}" name="Couverture des données -% du PIB en dollars PPA des pays non africains" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{F34E8087-8026-4011-BB83-038F41076EAC}" name="Source" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5203,25 +5204,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BD04F2-4FF7-4506-AFA0-8C4ABD56A3F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B257A-14FE-4681-A776-10A3B9516E5B}">
   <dimension ref="A1:R369"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" customWidth="1"/>
-    <col min="5" max="5" width="88.81640625" style="4" customWidth="1"/>
-    <col min="6" max="9" width="20.36328125" customWidth="1"/>
-    <col min="10" max="15" width="20.36328125" style="23" customWidth="1"/>
-    <col min="16" max="17" width="20.36328125" customWidth="1"/>
-    <col min="18" max="18" width="44.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5546875" customWidth="1"/>
+    <col min="5" max="5" width="88.77734375" style="4" customWidth="1"/>
+    <col min="6" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="15" width="20.33203125" style="23" customWidth="1"/>
+    <col min="16" max="17" width="20.33203125" customWidth="1"/>
+    <col min="18" max="18" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -5239,7 +5240,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -5260,7 +5261,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -5314,7 +5315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>29</v>
       </c>
@@ -5420,7 +5421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
@@ -5505,28 +5506,28 @@
         <v>2020</v>
       </c>
       <c r="L7" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M7" s="19">
-        <v>100</v>
+        <v>99.735094437053306</v>
       </c>
       <c r="N7" s="19">
         <v>100</v>
       </c>
       <c r="O7" s="19">
-        <v>96.402877697841802</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P7" s="19">
-        <v>99.098455885573301</v>
+        <v>98.655729632377501</v>
       </c>
       <c r="Q7" s="19">
-        <v>100</v>
+        <v>99.8707037563764</v>
       </c>
       <c r="R7" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
         <v>47</v>
       </c>
@@ -5558,19 +5559,19 @@
         <v>2022</v>
       </c>
       <c r="L8" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M8" s="19">
-        <v>100</v>
+        <v>99.738211907338894</v>
       </c>
       <c r="N8" s="19">
         <v>100</v>
       </c>
       <c r="O8" s="19">
-        <v>94.964028776978395</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P8" s="19">
-        <v>98.368431228599704</v>
+        <v>98.452849609075997</v>
       </c>
       <c r="Q8" s="19">
         <v>100</v>
@@ -5579,7 +5580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>51</v>
       </c>
@@ -5611,19 +5612,19 @@
         <v>2022</v>
       </c>
       <c r="L9" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M9" s="19">
-        <v>100</v>
+        <v>99.738211907338894</v>
       </c>
       <c r="N9" s="19">
         <v>100</v>
       </c>
       <c r="O9" s="19">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P9" s="19">
-        <v>98.368431228599704</v>
+        <v>99.085306563102705</v>
       </c>
       <c r="Q9" s="19">
         <v>100</v>
@@ -5632,7 +5633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
         <v>55</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>99.992388172277103</v>
       </c>
       <c r="N10" s="19">
-        <v>99.955677527566706</v>
+        <v>99.953355119444595</v>
       </c>
       <c r="O10" s="19">
         <v>87.050359712230204</v>
@@ -5679,13 +5680,13 @@
         <v>95.685370490526495</v>
       </c>
       <c r="Q10" s="19">
-        <v>96.406664319218706</v>
+        <v>96.411243649155097</v>
       </c>
       <c r="R10" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
         <v>61</v>
       </c>
@@ -5717,13 +5718,13 @@
         <v>65</v>
       </c>
       <c r="L11" s="19">
-        <v>84.905660377358501</v>
+        <v>86.792452830188694</v>
       </c>
       <c r="M11" s="19">
-        <v>86.099538890991496</v>
+        <v>86.502995646178704</v>
       </c>
       <c r="N11" s="19">
-        <v>87.109240734376698</v>
+        <v>87.150774050576103</v>
       </c>
       <c r="O11" s="19">
         <v>68.345323741007206</v>
@@ -5732,13 +5733,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q11" s="19">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R11" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
         <v>67</v>
       </c>
@@ -5770,13 +5771,13 @@
         <v>65</v>
       </c>
       <c r="L12" s="19">
-        <v>84.905660377358501</v>
+        <v>86.792452830188694</v>
       </c>
       <c r="M12" s="19">
-        <v>86.099538890991496</v>
+        <v>86.502995646178704</v>
       </c>
       <c r="N12" s="19">
-        <v>87.109240734376698</v>
+        <v>87.150774050576103</v>
       </c>
       <c r="O12" s="19">
         <v>68.345323741007206</v>
@@ -5785,13 +5786,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q12" s="19">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R12" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
         <v>70</v>
       </c>
@@ -5838,13 +5839,13 @@
         <v>99.595614290131294</v>
       </c>
       <c r="Q13" s="19">
-        <v>99.998184138508805</v>
+        <v>99.998185723877995</v>
       </c>
       <c r="R13" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>76</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>96.024501714632095</v>
       </c>
       <c r="N14" s="19">
-        <v>91.971129078933899</v>
+        <v>91.970530930770906</v>
       </c>
       <c r="O14" s="19">
         <v>74.820143884892104</v>
@@ -5891,13 +5892,13 @@
         <v>95.639726575809604</v>
       </c>
       <c r="Q14" s="19">
-        <v>96.231114171036097</v>
+        <v>96.233766019938102</v>
       </c>
       <c r="R14" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
         <v>80</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
         <v>85</v>
       </c>
@@ -5982,28 +5983,28 @@
         <v>2020</v>
       </c>
       <c r="L16" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M16" s="19">
-        <v>100</v>
+        <v>99.735094437053306</v>
       </c>
       <c r="N16" s="19">
         <v>100</v>
       </c>
       <c r="O16" s="19">
-        <v>96.402877697841802</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P16" s="19">
-        <v>99.098455885573301</v>
+        <v>98.655729632377501</v>
       </c>
       <c r="Q16" s="19">
-        <v>100</v>
+        <v>99.8707037563764</v>
       </c>
       <c r="R16" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
         <v>91</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>97</v>
       </c>
@@ -6103,13 +6104,13 @@
         <v>99.841708839713505</v>
       </c>
       <c r="Q18" s="19">
-        <v>99.367016968382401</v>
+        <v>99.367841369006896</v>
       </c>
       <c r="R18" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
         <v>100</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>87.463787529746298</v>
       </c>
       <c r="N19" s="19">
-        <v>93.519864659746304</v>
+        <v>93.468811816381304</v>
       </c>
       <c r="O19" s="19">
         <v>58.9928057553957</v>
@@ -6156,13 +6157,13 @@
         <v>97.432514236379106</v>
       </c>
       <c r="Q19" s="19">
-        <v>96.395807127609999</v>
+        <v>96.343182856860096</v>
       </c>
       <c r="R19" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
         <v>104</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>87.463787529746298</v>
       </c>
       <c r="N20" s="19">
-        <v>93.519864659746304</v>
+        <v>93.468811816381304</v>
       </c>
       <c r="O20" s="19">
         <v>58.9928057553957</v>
@@ -6209,13 +6210,13 @@
         <v>97.432514236379106</v>
       </c>
       <c r="Q20" s="19">
-        <v>96.395807127609999</v>
+        <v>96.343182856860096</v>
       </c>
       <c r="R20" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
         <v>108</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>97.416094523775897</v>
       </c>
       <c r="N21" s="19">
-        <v>97.055868635974903</v>
+        <v>97.130724509857799</v>
       </c>
       <c r="O21" s="19">
         <v>61.151079136690697</v>
@@ -6262,13 +6263,13 @@
         <v>98.368746159440207</v>
       </c>
       <c r="Q21" s="19">
-        <v>98.439957634044504</v>
+        <v>98.4371833889698</v>
       </c>
       <c r="R21" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
         <v>111</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>97.416094523775897</v>
       </c>
       <c r="N22" s="19">
-        <v>97.055868635974903</v>
+        <v>97.130724509857799</v>
       </c>
       <c r="O22" s="19">
         <v>61.151079136690697</v>
@@ -6315,13 +6316,13 @@
         <v>98.368746159440207</v>
       </c>
       <c r="Q22" s="19">
-        <v>98.439957634044504</v>
+        <v>98.4371833889698</v>
       </c>
       <c r="R22" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
         <v>114</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>119</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>122</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
         <v>125</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N26" s="19">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O26" s="19">
         <v>60.431654676259001</v>
@@ -6527,13 +6528,13 @@
         <v>82.681736449471401</v>
       </c>
       <c r="Q26" s="19">
-        <v>58.404283671281199</v>
+        <v>58.426136504728497</v>
       </c>
       <c r="R26" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
         <v>131</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N27" s="19">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O27" s="19">
         <v>60.431654676259001</v>
@@ -6580,13 +6581,13 @@
         <v>82.681736449471401</v>
       </c>
       <c r="Q27" s="19">
-        <v>58.404283671281199</v>
+        <v>58.426136504728497</v>
       </c>
       <c r="R27" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>134</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N28" s="19">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O28" s="19">
         <v>60.431654676259001</v>
@@ -6633,13 +6634,13 @@
         <v>82.681736449471401</v>
       </c>
       <c r="Q28" s="19">
-        <v>58.404283671281199</v>
+        <v>58.426136504728497</v>
       </c>
       <c r="R28" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
         <v>137</v>
       </c>
@@ -6677,7 +6678,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N29" s="19">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O29" s="19">
         <v>60.431654676259001</v>
@@ -6686,13 +6687,13 @@
         <v>82.681736449471401</v>
       </c>
       <c r="Q29" s="19">
-        <v>58.404283671281199</v>
+        <v>58.426136504728497</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
         <v>140</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N30" s="19">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O30" s="19">
         <v>61.151079136690697</v>
@@ -6739,13 +6740,13 @@
         <v>82.683184194879601</v>
       </c>
       <c r="Q30" s="19">
-        <v>58.405903666333501</v>
+        <v>58.427776281103</v>
       </c>
       <c r="R30" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B31" s="17" t="s">
         <v>143</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N31" s="19">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O31" s="19">
         <v>61.151079136690697</v>
@@ -6792,13 +6793,13 @@
         <v>82.683184194879601</v>
       </c>
       <c r="Q31" s="19">
-        <v>58.405903666333501</v>
+        <v>58.427776281103</v>
       </c>
       <c r="R31" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>146</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N32" s="19">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O32" s="19">
         <v>61.151079136690697</v>
@@ -6845,13 +6846,13 @@
         <v>82.683184194879601</v>
       </c>
       <c r="Q32" s="19">
-        <v>58.405903666333501</v>
+        <v>58.427776281103</v>
       </c>
       <c r="R32" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
         <v>149</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>99.293157557648499</v>
       </c>
       <c r="N33" s="19">
-        <v>97.306052285041901</v>
+        <v>97.297285432064896</v>
       </c>
       <c r="O33" s="19">
         <v>61.151079136690697</v>
@@ -6898,13 +6899,13 @@
         <v>82.683184194879601</v>
       </c>
       <c r="Q33" s="19">
-        <v>58.405903666333501</v>
+        <v>58.427776281103</v>
       </c>
       <c r="R33" s="20" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
         <v>152</v>
       </c>
@@ -6942,7 +6943,7 @@
         <v>99.992388172277103</v>
       </c>
       <c r="N34" s="19">
-        <v>99.955677527566706</v>
+        <v>99.953355119444595</v>
       </c>
       <c r="O34" s="19">
         <v>87.050359712230204</v>
@@ -6951,13 +6952,13 @@
         <v>95.685370490526495</v>
       </c>
       <c r="Q34" s="19">
-        <v>96.406664319218706</v>
+        <v>96.411243649155097</v>
       </c>
       <c r="R34" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
         <v>155</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>99.992388172277103</v>
       </c>
       <c r="N35" s="19">
-        <v>99.955677527566706</v>
+        <v>99.953355119444595</v>
       </c>
       <c r="O35" s="19">
         <v>87.050359712230204</v>
@@ -7004,13 +7005,13 @@
         <v>95.685370490526495</v>
       </c>
       <c r="Q35" s="19">
-        <v>96.406664319218706</v>
+        <v>96.411243649155097</v>
       </c>
       <c r="R35" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B36" s="17" t="s">
         <v>157</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N36" s="19">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O36" s="19">
         <v>88.489208633093497</v>
@@ -7057,13 +7058,13 @@
         <v>98.535649929109198</v>
       </c>
       <c r="Q36" s="19">
-        <v>99.816407863313302</v>
+        <v>99.768242939504205</v>
       </c>
       <c r="R36" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:18" ht="153" x14ac:dyDescent="0.3">
       <c r="B37" s="17" t="s">
         <v>160</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N37" s="19">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O37" s="19">
         <v>88.489208633093497</v>
@@ -7110,13 +7111,13 @@
         <v>98.535649929109198</v>
       </c>
       <c r="Q37" s="19">
-        <v>99.816407863313302</v>
+        <v>99.768242939504205</v>
       </c>
       <c r="R37" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:18" ht="153" x14ac:dyDescent="0.3">
       <c r="B38" s="17" t="s">
         <v>163</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N38" s="19">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O38" s="19">
         <v>88.489208633093497</v>
@@ -7163,13 +7164,13 @@
         <v>98.535649929109198</v>
       </c>
       <c r="Q38" s="19">
-        <v>99.816407863313302</v>
+        <v>99.768242939504205</v>
       </c>
       <c r="R38" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:18" ht="153" x14ac:dyDescent="0.3">
       <c r="B39" s="17" t="s">
         <v>166</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N39" s="19">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O39" s="19">
         <v>88.489208633093497</v>
@@ -7216,13 +7217,13 @@
         <v>98.535649929109198</v>
       </c>
       <c r="Q39" s="19">
-        <v>99.816407863313302</v>
+        <v>99.768242939504205</v>
       </c>
       <c r="R39" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" ht="153" x14ac:dyDescent="0.3">
       <c r="B40" s="17" t="s">
         <v>168</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B41" s="17" t="s">
         <v>170</v>
       </c>
@@ -7303,32 +7304,32 @@
       <c r="J41" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M41" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="19" t="s">
-        <v>27</v>
+      <c r="K41" s="8">
+        <v>2021</v>
+      </c>
+      <c r="L41" s="19">
+        <v>96.2264150943397</v>
+      </c>
+      <c r="M41" s="19">
+        <v>98.954827922528693</v>
+      </c>
+      <c r="N41" s="19">
+        <v>99.916959090988399</v>
+      </c>
+      <c r="O41" s="19">
+        <v>89.208633093525194</v>
+      </c>
+      <c r="P41" s="19">
+        <v>97.980055264762598</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>99.593184843012807</v>
       </c>
       <c r="R41" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B42" s="17" t="s">
         <v>174</v>
       </c>
@@ -7356,32 +7357,32 @@
       <c r="J42" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="19" t="s">
-        <v>27</v>
+      <c r="K42" s="8">
+        <v>2021</v>
+      </c>
+      <c r="L42" s="19">
+        <v>96.2264150943397</v>
+      </c>
+      <c r="M42" s="19">
+        <v>98.954827922528693</v>
+      </c>
+      <c r="N42" s="19">
+        <v>99.916959090988399</v>
+      </c>
+      <c r="O42" s="19">
+        <v>93.525179856115102</v>
+      </c>
+      <c r="P42" s="19">
+        <v>97.984693738026905</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>99.597184277099004</v>
       </c>
       <c r="R42" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B43" s="17" t="s">
         <v>177</v>
       </c>
@@ -7409,32 +7410,32 @@
       <c r="J43" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O43" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P43" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="19" t="s">
-        <v>27</v>
+      <c r="K43" s="8">
+        <v>2021</v>
+      </c>
+      <c r="L43" s="19">
+        <v>96.2264150943397</v>
+      </c>
+      <c r="M43" s="19">
+        <v>98.954827922528693</v>
+      </c>
+      <c r="N43" s="19">
+        <v>99.916959090988399</v>
+      </c>
+      <c r="O43" s="19">
+        <v>93.525179856115102</v>
+      </c>
+      <c r="P43" s="19">
+        <v>97.984693738026905</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>99.597184277099004</v>
       </c>
       <c r="R43" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B44" s="17" t="s">
         <v>180</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>129</v>
       </c>
       <c r="K44" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L44" s="19">
         <v>100</v>
@@ -7478,7 +7479,7 @@
         <v>99.280575539568403</v>
       </c>
       <c r="P44" s="19">
-        <v>99.999426252060005</v>
+        <v>99.999433020367405</v>
       </c>
       <c r="Q44" s="19">
         <v>100</v>
@@ -7487,7 +7488,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B45" s="17" t="s">
         <v>185</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>129</v>
       </c>
       <c r="K45" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L45" s="19">
         <v>100</v>
@@ -7540,7 +7541,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
         <v>188</v>
       </c>
@@ -7569,7 +7570,7 @@
         <v>129</v>
       </c>
       <c r="K46" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L46" s="19">
         <v>100</v>
@@ -7593,7 +7594,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B47" s="17" t="s">
         <v>191</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>129</v>
       </c>
       <c r="K47" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L47" s="19">
         <v>100</v>
@@ -7646,7 +7647,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B48" s="17" t="s">
         <v>194</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>129</v>
       </c>
       <c r="K48" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L48" s="19">
         <v>100</v>
@@ -7699,7 +7700,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B49" s="17" t="s">
         <v>196</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>129</v>
       </c>
       <c r="K49" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L49" s="19">
         <v>100</v>
@@ -7752,7 +7753,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
         <v>199</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>129</v>
       </c>
       <c r="K50" s="8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L50" s="19">
         <v>100</v>
@@ -7805,7 +7806,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B51" s="17" t="s">
         <v>202</v>
       </c>
@@ -7833,32 +7834,32 @@
       <c r="J51" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K51" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M51" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N51" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O51" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P51" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q51" s="19" t="s">
-        <v>27</v>
+      <c r="K51" s="8">
+        <v>2021</v>
+      </c>
+      <c r="L51" s="19">
+        <v>98.113207547169793</v>
+      </c>
+      <c r="M51" s="19">
+        <v>99.992255362735307</v>
+      </c>
+      <c r="N51" s="19">
+        <v>99.955522897595401</v>
+      </c>
+      <c r="O51" s="19">
+        <v>88.489208633093497</v>
+      </c>
+      <c r="P51" s="19">
+        <v>98.535649929109198</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>99.768242939504205</v>
       </c>
       <c r="R51" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B52" s="17" t="s">
         <v>205</v>
       </c>
@@ -7886,32 +7887,32 @@
       <c r="J52" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M52" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O52" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P52" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q52" s="19" t="s">
-        <v>27</v>
+      <c r="K52" s="8">
+        <v>2021</v>
+      </c>
+      <c r="L52" s="19">
+        <v>98.113207547169793</v>
+      </c>
+      <c r="M52" s="19">
+        <v>99.992255362735307</v>
+      </c>
+      <c r="N52" s="19">
+        <v>99.955522897595401</v>
+      </c>
+      <c r="O52" s="19">
+        <v>88.489208633093497</v>
+      </c>
+      <c r="P52" s="19">
+        <v>98.535649929109198</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>99.768242939504205</v>
       </c>
       <c r="R52" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B53" s="17" t="s">
         <v>208</v>
       </c>
@@ -7939,32 +7940,32 @@
       <c r="J53" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O53" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P53" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q53" s="19" t="s">
-        <v>27</v>
+      <c r="K53" s="8">
+        <v>2021</v>
+      </c>
+      <c r="L53" s="19">
+        <v>98.113207547169793</v>
+      </c>
+      <c r="M53" s="19">
+        <v>99.992255362735307</v>
+      </c>
+      <c r="N53" s="19">
+        <v>99.955522897595401</v>
+      </c>
+      <c r="O53" s="19">
+        <v>88.489208633093497</v>
+      </c>
+      <c r="P53" s="19">
+        <v>98.535649929109198</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>99.768242939504205</v>
       </c>
       <c r="R53" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B54" s="17" t="s">
         <v>211</v>
       </c>
@@ -7992,32 +7993,32 @@
       <c r="J54" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="K54" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L54" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O54" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P54" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q54" s="19" t="s">
-        <v>27</v>
+      <c r="K54" s="8">
+        <v>2021</v>
+      </c>
+      <c r="L54" s="19">
+        <v>98.113207547169793</v>
+      </c>
+      <c r="M54" s="19">
+        <v>99.992255362735307</v>
+      </c>
+      <c r="N54" s="19">
+        <v>99.955522897595401</v>
+      </c>
+      <c r="O54" s="19">
+        <v>88.489208633093497</v>
+      </c>
+      <c r="P54" s="19">
+        <v>98.535649929109198</v>
+      </c>
+      <c r="Q54" s="19">
+        <v>99.768242939504205</v>
       </c>
       <c r="R54" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B55" s="17" t="s">
         <v>214</v>
       </c>
@@ -8049,13 +8050,13 @@
         <v>65</v>
       </c>
       <c r="L55" s="19">
-        <v>84.905660377358501</v>
+        <v>86.792452830188694</v>
       </c>
       <c r="M55" s="19">
-        <v>86.099538890991496</v>
+        <v>86.502995646178704</v>
       </c>
       <c r="N55" s="19">
-        <v>87.109240734376698</v>
+        <v>87.150774050576103</v>
       </c>
       <c r="O55" s="19">
         <v>68.345323741007206</v>
@@ -8064,13 +8065,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q55" s="19">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R55" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B56" s="17" t="s">
         <v>218</v>
       </c>
@@ -8102,13 +8103,13 @@
         <v>65</v>
       </c>
       <c r="L56" s="19">
-        <v>84.905660377358501</v>
+        <v>86.792452830188694</v>
       </c>
       <c r="M56" s="19">
-        <v>86.099538890991496</v>
+        <v>86.502995646178704</v>
       </c>
       <c r="N56" s="19">
-        <v>87.109240734376698</v>
+        <v>87.150774050576103</v>
       </c>
       <c r="O56" s="19">
         <v>68.345323741007206</v>
@@ -8117,13 +8118,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q56" s="19">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R56" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B57" s="17" t="s">
         <v>221</v>
       </c>
@@ -8155,13 +8156,13 @@
         <v>65</v>
       </c>
       <c r="L57" s="19">
-        <v>83.018867924528294</v>
+        <v>84.905660377358501</v>
       </c>
       <c r="M57" s="19">
-        <v>85.242483371807197</v>
+        <v>85.645940126994304</v>
       </c>
       <c r="N57" s="19">
-        <v>86.958731775886903</v>
+        <v>87.0009587475747</v>
       </c>
       <c r="O57" s="19">
         <v>68.345323741007206</v>
@@ -8170,13 +8171,13 @@
         <v>94.270036457232607</v>
       </c>
       <c r="Q57" s="19">
-        <v>95.621053897727094</v>
+        <v>95.630223177652894</v>
       </c>
       <c r="R57" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B58" s="17" t="s">
         <v>224</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N58" s="19">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O58" s="19">
         <v>48.201438848920901</v>
@@ -8223,13 +8224,13 @@
         <v>79.538476951577906</v>
       </c>
       <c r="Q58" s="19">
-        <v>49.934591423095902</v>
+        <v>49.962703351461201</v>
       </c>
       <c r="R58" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B59" s="17" t="s">
         <v>227</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N59" s="19">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O59" s="19">
         <v>48.201438848920901</v>
@@ -8276,13 +8277,13 @@
         <v>79.538476951577906</v>
       </c>
       <c r="Q59" s="19">
-        <v>49.934591423095902</v>
+        <v>49.962703351461201</v>
       </c>
       <c r="R59" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B60" s="17" t="s">
         <v>230</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N60" s="19">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O60" s="19">
         <v>48.201438848920901</v>
@@ -8329,13 +8330,13 @@
         <v>79.538476951577906</v>
       </c>
       <c r="Q60" s="19">
-        <v>49.934591423095902</v>
+        <v>49.962703351461201</v>
       </c>
       <c r="R60" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
         <v>233</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N61" s="19">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O61" s="19">
         <v>48.920863309352498</v>
@@ -8382,13 +8383,13 @@
         <v>79.831863022037496</v>
       </c>
       <c r="Q61" s="19">
-        <v>50.335448855622602</v>
+        <v>50.363339320234502</v>
       </c>
       <c r="R61" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B62" s="17" t="s">
         <v>236</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N62" s="19">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O62" s="19">
         <v>48.201438848920901</v>
@@ -8435,13 +8436,13 @@
         <v>79.538476951577906</v>
       </c>
       <c r="Q62" s="19">
-        <v>49.934591423095902</v>
+        <v>49.962703351461201</v>
       </c>
       <c r="R62" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B63" s="17" t="s">
         <v>239</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>98.208938931739993</v>
       </c>
       <c r="N63" s="19">
-        <v>97.058801697771102</v>
+        <v>97.055914670365198</v>
       </c>
       <c r="O63" s="19">
         <v>48.920863309352498</v>
@@ -8488,13 +8489,13 @@
         <v>79.831863022037496</v>
       </c>
       <c r="Q63" s="19">
-        <v>50.335448855622602</v>
+        <v>50.363339320234502</v>
       </c>
       <c r="R63" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B64" s="17" t="s">
         <v>242</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>99.992138210963503</v>
       </c>
       <c r="N64" s="19">
-        <v>99.9590212234516</v>
+        <v>99.954575458804797</v>
       </c>
       <c r="O64" s="19">
         <v>89.928057553956904</v>
@@ -8541,13 +8542,13 @@
         <v>99.9868429257385</v>
       </c>
       <c r="Q64" s="19">
-        <v>99.989578580514802</v>
+        <v>99.989529661566195</v>
       </c>
       <c r="R64" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B65" s="17" t="s">
         <v>245</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>99.373959039664001</v>
       </c>
       <c r="N65" s="19">
-        <v>99.340007590646195</v>
+        <v>99.335049366246906</v>
       </c>
       <c r="O65" s="19">
         <v>84.172661870503603</v>
@@ -8594,13 +8595,13 @@
         <v>99.298973719028993</v>
       </c>
       <c r="Q65" s="19">
-        <v>99.856931904372402</v>
+        <v>99.857276419872207</v>
       </c>
       <c r="R65" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B66" s="17" t="s">
         <v>249</v>
       </c>
@@ -8638,7 +8639,7 @@
         <v>79.910730748958102</v>
       </c>
       <c r="N66" s="19">
-        <v>82.405029303360195</v>
+        <v>82.403468058109695</v>
       </c>
       <c r="O66" s="19">
         <v>85.611510791366896</v>
@@ -8647,13 +8648,13 @@
         <v>99.450593285326903</v>
       </c>
       <c r="Q66" s="19">
-        <v>99.901339690634202</v>
+        <v>99.901382315332896</v>
       </c>
       <c r="R66" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B67" s="17" t="s">
         <v>252</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>95.084642722482997</v>
       </c>
       <c r="N67" s="19">
-        <v>89.601123347787293</v>
+        <v>89.5330752874452</v>
       </c>
       <c r="O67" s="19">
         <v>67.625899280575595</v>
@@ -8700,13 +8701,13 @@
         <v>94.289435578219994</v>
       </c>
       <c r="Q67" s="19">
-        <v>95.329430212959295</v>
+        <v>95.285158363783097</v>
       </c>
       <c r="R67" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B68" s="17" t="s">
         <v>257</v>
       </c>
@@ -8753,13 +8754,13 @@
         <v>96.580056230523098</v>
       </c>
       <c r="Q68" s="19">
-        <v>96.7934590441929</v>
+        <v>96.750309262070701</v>
       </c>
       <c r="R68" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B69" s="17" t="s">
         <v>260</v>
       </c>
@@ -8797,7 +8798,7 @@
         <v>95.345400700096107</v>
       </c>
       <c r="N69" s="19">
-        <v>90.147589225373906</v>
+        <v>90.084408170141003</v>
       </c>
       <c r="O69" s="19">
         <v>74.820143884892104</v>
@@ -8806,13 +8807,13 @@
         <v>94.798079138574707</v>
       </c>
       <c r="Q69" s="19">
-        <v>95.492179369016895</v>
+        <v>95.448317217555797</v>
       </c>
       <c r="R69" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B70" s="17" t="s">
         <v>263</v>
       </c>
@@ -8850,7 +8851,7 @@
         <v>99.406245031207902</v>
       </c>
       <c r="N70" s="19">
-        <v>99.400836178401704</v>
+        <v>99.489775468915795</v>
       </c>
       <c r="O70" s="19">
         <v>75.539568345323801</v>
@@ -8859,13 +8860,13 @@
         <v>96.025988736961494</v>
       </c>
       <c r="Q70" s="19">
-        <v>95.959165611971997</v>
+        <v>95.914047738149904</v>
       </c>
       <c r="R70" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B71" s="17" t="s">
         <v>266</v>
       </c>
@@ -8903,7 +8904,7 @@
         <v>98.843967025551507</v>
       </c>
       <c r="N71" s="19">
-        <v>97.359779119834798</v>
+        <v>97.449780576693399</v>
       </c>
       <c r="O71" s="19">
         <v>76.258992805755398</v>
@@ -8912,13 +8913,13 @@
         <v>96.078155809011406</v>
       </c>
       <c r="Q71" s="19">
-        <v>96.604552167992296</v>
+        <v>96.561530600466696</v>
       </c>
       <c r="R71" s="20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B72" s="17" t="s">
         <v>269</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>97.147010024813596</v>
       </c>
       <c r="N72" s="19">
-        <v>99.159344161276906</v>
+        <v>99.130434017112606</v>
       </c>
       <c r="O72" s="19">
         <v>97.122302158273399</v>
@@ -8965,13 +8966,13 @@
         <v>99.5973908827809</v>
       </c>
       <c r="Q72" s="19">
-        <v>99.999649377911794</v>
+        <v>99.999648581744495</v>
       </c>
       <c r="R72" s="20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B73" s="17" t="s">
         <v>274</v>
       </c>
@@ -9009,7 +9010,7 @@
         <v>99.073243571031398</v>
       </c>
       <c r="N73" s="19">
-        <v>97.439525304635396</v>
+        <v>97.409821006267507</v>
       </c>
       <c r="O73" s="19">
         <v>94.244604316546798</v>
@@ -9018,13 +9019,13 @@
         <v>98.406800735849799</v>
       </c>
       <c r="Q73" s="19">
-        <v>99.661976999864095</v>
+        <v>99.661797030336501</v>
       </c>
       <c r="R73" s="20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B74" s="17" t="s">
         <v>277</v>
       </c>
@@ -9077,7 +9078,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B75" s="17" t="s">
         <v>279</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>91.205412943019297</v>
       </c>
       <c r="N75" s="19">
-        <v>97.864943438540905</v>
+        <v>97.865377421552495</v>
       </c>
       <c r="O75" s="19">
         <v>97.841726618705096</v>
@@ -9124,13 +9125,13 @@
         <v>99.997166909469499</v>
       </c>
       <c r="Q75" s="19">
-        <v>99.999563094328394</v>
+        <v>99.999549385175101</v>
       </c>
       <c r="R75" s="20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="76" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B76" s="17" t="s">
         <v>281</v>
       </c>
@@ -9168,7 +9169,7 @@
         <v>99.307628632850296</v>
       </c>
       <c r="N76" s="19">
-        <v>99.590988947550002</v>
+        <v>99.560849549737696</v>
       </c>
       <c r="O76" s="19">
         <v>97.122302158273399</v>
@@ -9177,13 +9178,13 @@
         <v>99.997106258827202</v>
       </c>
       <c r="Q76" s="19">
-        <v>99.999277989278696</v>
+        <v>99.999264205862801</v>
       </c>
       <c r="R76" s="20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="77" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B77" s="17" t="s">
         <v>285</v>
       </c>
@@ -9221,7 +9222,7 @@
         <v>77.090441403844906</v>
       </c>
       <c r="N77" s="19">
-        <v>85.704791870422298</v>
+        <v>85.679250584826093</v>
       </c>
       <c r="O77" s="19">
         <v>50.359712230215798</v>
@@ -9230,13 +9231,13 @@
         <v>71.6595603577166</v>
       </c>
       <c r="Q77" s="19">
-        <v>47.4290359371848</v>
+        <v>47.402144480678601</v>
       </c>
       <c r="R77" s="20" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="78" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B78" s="17" t="s">
         <v>289</v>
       </c>
@@ -9274,7 +9275,7 @@
         <v>98.4746215411826</v>
       </c>
       <c r="N78" s="19">
-        <v>99.063989958510703</v>
+        <v>99.162580389773694</v>
       </c>
       <c r="O78" s="19">
         <v>56.834532374100696</v>
@@ -9283,13 +9284,13 @@
         <v>86.687131588424705</v>
       </c>
       <c r="Q78" s="19">
-        <v>75.413870335941297</v>
+        <v>75.420865282407703</v>
       </c>
       <c r="R78" s="20" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B79" s="17" t="s">
         <v>294</v>
       </c>
@@ -9327,7 +9328,7 @@
         <v>93.577313983432504</v>
       </c>
       <c r="N79" s="19">
-        <v>92.956066201697695</v>
+        <v>92.956367615939001</v>
       </c>
       <c r="O79" s="19">
         <v>74.100719424460394</v>
@@ -9336,13 +9337,13 @@
         <v>98.712160720189203</v>
       </c>
       <c r="Q79" s="19">
-        <v>99.522036691229701</v>
+        <v>99.522274949587398</v>
       </c>
       <c r="R79" s="20" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="80" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B80" s="17" t="s">
         <v>299</v>
       </c>
@@ -9380,7 +9381,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N80" s="19">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O80" s="19">
         <v>20.143884892086302</v>
@@ -9389,13 +9390,13 @@
         <v>34.627362210963199</v>
       </c>
       <c r="Q80" s="19">
-        <v>13.855300217654399</v>
+        <v>13.841615334048999</v>
       </c>
       <c r="R80" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B81" s="17" t="s">
         <v>305</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N81" s="19">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O81" s="19">
         <v>20.143884892086302</v>
@@ -9442,13 +9443,13 @@
         <v>34.627362210963199</v>
       </c>
       <c r="Q81" s="19">
-        <v>13.855300217654399</v>
+        <v>13.841615334048999</v>
       </c>
       <c r="R81" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B82" s="17" t="s">
         <v>308</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N82" s="19">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O82" s="19">
         <v>20.143884892086302</v>
@@ -9495,13 +9496,13 @@
         <v>34.627362210963199</v>
       </c>
       <c r="Q82" s="19">
-        <v>13.855300217654399</v>
+        <v>13.841615334048999</v>
       </c>
       <c r="R82" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B83" s="17" t="s">
         <v>311</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N83" s="19">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O83" s="19">
         <v>20.143884892086302</v>
@@ -9548,13 +9549,13 @@
         <v>34.627362210963199</v>
       </c>
       <c r="Q83" s="19">
-        <v>13.855300217654399</v>
+        <v>13.841615334048999</v>
       </c>
       <c r="R83" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B84" s="17" t="s">
         <v>314</v>
       </c>
@@ -9592,7 +9593,7 @@
         <v>82.231775088844401</v>
       </c>
       <c r="N84" s="19">
-        <v>70.103868571351001</v>
+        <v>70.079929079876905</v>
       </c>
       <c r="O84" s="19">
         <v>19.424460431654701</v>
@@ -9601,13 +9602,13 @@
         <v>34.6179877467764</v>
       </c>
       <c r="Q84" s="19">
-        <v>13.8467389839787</v>
+        <v>13.833064017622201</v>
       </c>
       <c r="R84" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B85" s="17" t="s">
         <v>318</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>82.231775088844401</v>
       </c>
       <c r="N85" s="19">
-        <v>70.103868571351001</v>
+        <v>70.079929079876905</v>
       </c>
       <c r="O85" s="19">
         <v>19.424460431654701</v>
@@ -9654,13 +9655,13 @@
         <v>34.6179877467764</v>
       </c>
       <c r="Q85" s="19">
-        <v>13.8467389839787</v>
+        <v>13.833064017622201</v>
       </c>
       <c r="R85" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B86" s="17" t="s">
         <v>320</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>82.231775088844401</v>
       </c>
       <c r="N86" s="19">
-        <v>70.103868571351001</v>
+        <v>70.079929079876905</v>
       </c>
       <c r="O86" s="19">
         <v>19.424460431654701</v>
@@ -9707,13 +9708,13 @@
         <v>34.6179877467764</v>
       </c>
       <c r="Q86" s="19">
-        <v>13.8467389839787</v>
+        <v>13.833064017622201</v>
       </c>
       <c r="R86" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B87" s="17" t="s">
         <v>322</v>
       </c>
@@ -9751,7 +9752,7 @@
         <v>82.231775088844401</v>
       </c>
       <c r="N87" s="19">
-        <v>70.103868571351001</v>
+        <v>70.079929079876905</v>
       </c>
       <c r="O87" s="19">
         <v>19.424460431654701</v>
@@ -9760,13 +9761,13 @@
         <v>34.6179877467764</v>
       </c>
       <c r="Q87" s="19">
-        <v>13.8467389839787</v>
+        <v>13.833064017622201</v>
       </c>
       <c r="R87" s="20" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B88" s="17" t="s">
         <v>324</v>
       </c>
@@ -9804,7 +9805,7 @@
         <v>89.802373826518405</v>
       </c>
       <c r="N88" s="19">
-        <v>82.999921528346306</v>
+        <v>82.974157114458393</v>
       </c>
       <c r="O88" s="19">
         <v>75.539568345323801</v>
@@ -9813,13 +9814,13 @@
         <v>95.506061117097303</v>
       </c>
       <c r="Q88" s="19">
-        <v>96.180951687111005</v>
+        <v>96.182869390577096</v>
       </c>
       <c r="R88" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B89" s="17" t="s">
         <v>329</v>
       </c>
@@ -9857,7 +9858,7 @@
         <v>89.802373826518405</v>
       </c>
       <c r="N89" s="19">
-        <v>82.999921528346306</v>
+        <v>82.974157114458393</v>
       </c>
       <c r="O89" s="19">
         <v>75.539568345323801</v>
@@ -9866,13 +9867,13 @@
         <v>95.506061117097303</v>
       </c>
       <c r="Q89" s="19">
-        <v>96.180951687111005</v>
+        <v>96.182869390577096</v>
       </c>
       <c r="R89" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="90" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B90" s="17" t="s">
         <v>331</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>94.535340991430701</v>
       </c>
       <c r="N90" s="19">
-        <v>95.231660906430093</v>
+        <v>95.202287875817305</v>
       </c>
       <c r="O90" s="19">
         <v>87.7697841726619</v>
@@ -9919,13 +9920,13 @@
         <v>96.674806348416098</v>
       </c>
       <c r="Q90" s="19">
-        <v>98.6172667717818</v>
+        <v>98.617663396854795</v>
       </c>
       <c r="R90" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B91" s="17" t="s">
         <v>334</v>
       </c>
@@ -9963,7 +9964,7 @@
         <v>94.535340991430701</v>
       </c>
       <c r="N91" s="19">
-        <v>95.231660906430093</v>
+        <v>95.202287875817305</v>
       </c>
       <c r="O91" s="19">
         <v>87.7697841726619</v>
@@ -9972,13 +9973,13 @@
         <v>96.674806348416098</v>
       </c>
       <c r="Q91" s="19">
-        <v>98.6172667717818</v>
+        <v>98.617663396854795</v>
       </c>
       <c r="R91" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="92" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B92" s="17" t="s">
         <v>336</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>98.018513439662797</v>
       </c>
       <c r="N92" s="19">
-        <v>99.119872483358293</v>
+        <v>99.215428967740493</v>
       </c>
       <c r="O92" s="19">
         <v>76.978417266187094</v>
@@ -10025,13 +10026,13 @@
         <v>99.053804304105896</v>
       </c>
       <c r="Q92" s="19">
-        <v>99.800484179625897</v>
+        <v>99.8006985119804</v>
       </c>
       <c r="R92" s="20" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="93" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B93" s="17" t="s">
         <v>341</v>
       </c>
@@ -10084,7 +10085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B94" s="17" t="s">
         <v>346</v>
       </c>
@@ -10137,7 +10138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B95" s="17" t="s">
         <v>348</v>
       </c>
@@ -10190,7 +10191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B96" s="17" t="s">
         <v>351</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B97" s="17" t="s">
         <v>355</v>
       </c>
@@ -10296,7 +10297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B98" s="17" t="s">
         <v>359</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B99" s="17" t="s">
         <v>362</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B100" s="17" t="s">
         <v>365</v>
       </c>
@@ -10440,7 +10441,7 @@
         <v>97.349297114739599</v>
       </c>
       <c r="N100" s="19">
-        <v>97.268405163652403</v>
+        <v>97.35203686893</v>
       </c>
       <c r="O100" s="19">
         <v>54.676258992805799</v>
@@ -10449,13 +10450,13 @@
         <v>82.860780163891107</v>
       </c>
       <c r="Q100" s="19">
-        <v>56.586753007316098</v>
+        <v>56.6188634048778</v>
       </c>
       <c r="R100" s="20" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="101" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B101" s="17" t="s">
         <v>368</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N101" s="19">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O101" s="19">
         <v>77.697841726618705</v>
@@ -10502,13 +10503,13 @@
         <v>99.088134530268405</v>
       </c>
       <c r="Q101" s="19">
-        <v>99.744424006193498</v>
+        <v>99.744449654510106</v>
       </c>
       <c r="R101" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="102" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B102" s="17" t="s">
         <v>373</v>
       </c>
@@ -10546,7 +10547,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N102" s="19">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O102" s="19">
         <v>76.258992805755398</v>
@@ -10555,13 +10556,13 @@
         <v>99.039879483159197</v>
       </c>
       <c r="Q102" s="19">
-        <v>99.508974178227305</v>
+        <v>99.509055228956299</v>
       </c>
       <c r="R102" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="103" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B103" s="17" t="s">
         <v>376</v>
       </c>
@@ -10599,7 +10600,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N103" s="19">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O103" s="19">
         <v>76.258992805755398</v>
@@ -10608,13 +10609,13 @@
         <v>99.039879483159197</v>
       </c>
       <c r="Q103" s="19">
-        <v>99.508974178227305</v>
+        <v>99.509055228956299</v>
       </c>
       <c r="R103" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="104" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B104" s="17" t="s">
         <v>379</v>
       </c>
@@ -10652,7 +10653,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N104" s="19">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O104" s="19">
         <v>76.978417266187094</v>
@@ -10661,13 +10662,13 @@
         <v>99.0473878008263</v>
       </c>
       <c r="Q104" s="19">
-        <v>99.516505290489704</v>
+        <v>99.516594846953197</v>
       </c>
       <c r="R104" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="105" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B105" s="17" t="s">
         <v>382</v>
       </c>
@@ -10705,7 +10706,7 @@
         <v>98.450651619401299</v>
       </c>
       <c r="N105" s="19">
-        <v>99.065573869148096</v>
+        <v>99.066364921045107</v>
       </c>
       <c r="O105" s="19">
         <v>76.978417266187094</v>
@@ -10714,13 +10715,13 @@
         <v>99.0473878008263</v>
       </c>
       <c r="Q105" s="19">
-        <v>99.516505290489704</v>
+        <v>99.516594846953197</v>
       </c>
       <c r="R105" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="106" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B106" s="17" t="s">
         <v>385</v>
       </c>
@@ -10758,7 +10759,7 @@
         <v>99.307707138585599</v>
       </c>
       <c r="N106" s="19">
-        <v>99.216082827637806</v>
+        <v>99.216180224046596</v>
       </c>
       <c r="O106" s="19">
         <v>76.978417266187094</v>
@@ -10767,13 +10768,13 @@
         <v>99.0473878008263</v>
       </c>
       <c r="Q106" s="19">
-        <v>99.516505290489704</v>
+        <v>99.516594846953197</v>
       </c>
       <c r="R106" s="20" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="107" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B107" s="17" t="s">
         <v>388</v>
       </c>
@@ -10826,7 +10827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B108" s="17" t="s">
         <v>392</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B109" s="17" t="s">
         <v>395</v>
       </c>
@@ -10932,7 +10933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B110" s="17" t="s">
         <v>398</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B111" s="17" t="s">
         <v>401</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B112" s="17" t="s">
         <v>404</v>
       </c>
@@ -11091,7 +11092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B113" s="17" t="s">
         <v>407</v>
       </c>
@@ -11123,19 +11124,19 @@
         <v>2021</v>
       </c>
       <c r="L113" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M113" s="19">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N113" s="19">
         <v>100</v>
       </c>
       <c r="O113" s="19">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P113" s="19">
-        <v>98.387734299358698</v>
+        <v>99.093902486283895</v>
       </c>
       <c r="Q113" s="19">
         <v>100</v>
@@ -11144,7 +11145,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B114" s="17" t="s">
         <v>411</v>
       </c>
@@ -11176,13 +11177,13 @@
         <v>2021</v>
       </c>
       <c r="L114" s="19">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M114" s="19">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N114" s="19">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O114" s="19">
         <v>85.611510791366896</v>
@@ -11191,13 +11192,13 @@
         <v>94.163254630215107</v>
       </c>
       <c r="Q114" s="19">
-        <v>92.316162508131995</v>
+        <v>92.228356581196294</v>
       </c>
       <c r="R114" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="115" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B115" s="17" t="s">
         <v>414</v>
       </c>
@@ -11229,10 +11230,10 @@
         <v>2021</v>
       </c>
       <c r="L115" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M115" s="19">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N115" s="19">
         <v>100</v>
@@ -11244,13 +11245,13 @@
         <v>91.614683484101505</v>
       </c>
       <c r="Q115" s="19">
-        <v>90.322232454226906</v>
+        <v>90.183933821994501</v>
       </c>
       <c r="R115" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B116" s="17" t="s">
         <v>417</v>
       </c>
@@ -11282,19 +11283,19 @@
         <v>2021</v>
       </c>
       <c r="L116" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M116" s="19">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N116" s="19">
         <v>100</v>
       </c>
       <c r="O116" s="19">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P116" s="19">
-        <v>98.387734299358698</v>
+        <v>99.093902486283895</v>
       </c>
       <c r="Q116" s="19">
         <v>100</v>
@@ -11303,7 +11304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B117" s="17" t="s">
         <v>420</v>
       </c>
@@ -11335,28 +11336,28 @@
         <v>2021</v>
       </c>
       <c r="L117" s="19">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M117" s="19">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N117" s="19">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O117" s="19">
-        <v>94.244604316546798</v>
+        <v>94.964028776978395</v>
       </c>
       <c r="P117" s="19">
-        <v>98.387455739665597</v>
+        <v>98.473889471064496</v>
       </c>
       <c r="Q117" s="19">
-        <v>99.999821228442002</v>
+        <v>99.9513786076011</v>
       </c>
       <c r="R117" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B118" s="17" t="s">
         <v>423</v>
       </c>
@@ -11388,19 +11389,19 @@
         <v>2021</v>
       </c>
       <c r="L118" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M118" s="19">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N118" s="19">
         <v>100</v>
       </c>
       <c r="O118" s="19">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P118" s="19">
-        <v>98.387734299358698</v>
+        <v>99.093902486283895</v>
       </c>
       <c r="Q118" s="19">
         <v>100</v>
@@ -11409,7 +11410,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B119" s="17" t="s">
         <v>425</v>
       </c>
@@ -11441,13 +11442,13 @@
         <v>2021</v>
       </c>
       <c r="L119" s="19">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M119" s="19">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N119" s="19">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O119" s="19">
         <v>85.611510791366896</v>
@@ -11456,13 +11457,13 @@
         <v>94.163254630215107</v>
       </c>
       <c r="Q119" s="19">
-        <v>92.316162508131995</v>
+        <v>92.228356581196294</v>
       </c>
       <c r="R119" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B120" s="17" t="s">
         <v>427</v>
       </c>
@@ -11494,10 +11495,10 @@
         <v>2021</v>
       </c>
       <c r="L120" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M120" s="19">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N120" s="19">
         <v>100</v>
@@ -11509,13 +11510,13 @@
         <v>91.614683484101505</v>
       </c>
       <c r="Q120" s="19">
-        <v>90.322232454226906</v>
+        <v>90.183933821994501</v>
       </c>
       <c r="R120" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B121" s="17" t="s">
         <v>429</v>
       </c>
@@ -11547,19 +11548,19 @@
         <v>2021</v>
       </c>
       <c r="L121" s="19">
-        <v>100</v>
+        <v>98.113207547169793</v>
       </c>
       <c r="M121" s="19">
-        <v>100</v>
+        <v>99.736658183288299</v>
       </c>
       <c r="N121" s="19">
         <v>100</v>
       </c>
       <c r="O121" s="19">
-        <v>94.964028776978395</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P121" s="19">
-        <v>98.387734299358698</v>
+        <v>99.093902486283895</v>
       </c>
       <c r="Q121" s="19">
         <v>100</v>
@@ -11568,7 +11569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B122" s="17" t="s">
         <v>431</v>
       </c>
@@ -11600,28 +11601,28 @@
         <v>2021</v>
       </c>
       <c r="L122" s="19">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M122" s="19">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N122" s="19">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O122" s="19">
-        <v>94.244604316546798</v>
+        <v>94.964028776978395</v>
       </c>
       <c r="P122" s="19">
-        <v>98.387455739665597</v>
+        <v>98.473889471064496</v>
       </c>
       <c r="Q122" s="19">
-        <v>99.999821228442002</v>
+        <v>99.9513786076011</v>
       </c>
       <c r="R122" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B123" s="17" t="s">
         <v>433</v>
       </c>
@@ -11674,7 +11675,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="124" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B124" s="17" t="s">
         <v>438</v>
       </c>
@@ -11727,7 +11728,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="125" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B125" s="17" t="s">
         <v>441</v>
       </c>
@@ -11780,7 +11781,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="126" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B126" s="17" t="s">
         <v>444</v>
       </c>
@@ -11833,7 +11834,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="127" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B127" s="17" t="s">
         <v>447</v>
       </c>
@@ -11886,7 +11887,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="128" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B128" s="17" t="s">
         <v>450</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="129" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B129" s="17" t="s">
         <v>453</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="130" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B130" s="17" t="s">
         <v>456</v>
       </c>
@@ -12045,7 +12046,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="131" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B131" s="17" t="s">
         <v>459</v>
       </c>
@@ -12098,7 +12099,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="132" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B132" s="17" t="s">
         <v>465</v>
       </c>
@@ -12151,7 +12152,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="133" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B133" s="17" t="s">
         <v>468</v>
       </c>
@@ -12204,7 +12205,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="134" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B134" s="17" t="s">
         <v>471</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="135" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B135" s="17" t="s">
         <v>473</v>
       </c>
@@ -12310,7 +12311,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="136" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B136" s="17" t="s">
         <v>476</v>
       </c>
@@ -12363,7 +12364,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="137" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B137" s="17" t="s">
         <v>478</v>
       </c>
@@ -12416,7 +12417,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B138" s="17" t="s">
         <v>481</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="139" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B139" s="17" t="s">
         <v>483</v>
       </c>
@@ -12522,7 +12523,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="140" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B140" s="17" t="s">
         <v>486</v>
       </c>
@@ -12575,7 +12576,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="141" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B141" s="17" t="s">
         <v>488</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="142" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B142" s="17" t="s">
         <v>491</v>
       </c>
@@ -12681,7 +12682,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="143" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B143" s="17" t="s">
         <v>494</v>
       </c>
@@ -12713,13 +12714,13 @@
         <v>2021</v>
       </c>
       <c r="L143" s="19">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M143" s="19">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N143" s="19">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O143" s="19">
         <v>94.244604316546798</v>
@@ -12728,13 +12729,13 @@
         <v>98.387212757225896</v>
       </c>
       <c r="Q143" s="19">
-        <v>99.998343077480897</v>
+        <v>99.897024139440504</v>
       </c>
       <c r="R143" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:18" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="B144" s="17" t="s">
         <v>497</v>
       </c>
@@ -12781,13 +12782,13 @@
         <v>23.573088230534601</v>
       </c>
       <c r="Q144" s="19">
-        <v>27.487456813933601</v>
+        <v>27.485591964694301</v>
       </c>
       <c r="R144" s="20" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="145" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B145" s="17" t="s">
         <v>501</v>
       </c>
@@ -12840,7 +12841,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="146" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B146" s="17" t="s">
         <v>504</v>
       </c>
@@ -12893,7 +12894,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="147" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B147" s="17" t="s">
         <v>507</v>
       </c>
@@ -12931,7 +12932,7 @@
         <v>99.850102971269905</v>
       </c>
       <c r="N147" s="19">
-        <v>99.933633626909398</v>
+        <v>99.933612862826294</v>
       </c>
       <c r="O147" s="19">
         <v>97.841726618705096</v>
@@ -12940,13 +12941,13 @@
         <v>77.961743253753696</v>
       </c>
       <c r="Q147" s="19">
-        <v>80.155089787929199</v>
+        <v>80.201779572710294</v>
       </c>
       <c r="R147" s="20" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="148" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B148" s="17" t="s">
         <v>510</v>
       </c>
@@ -12999,7 +13000,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="149" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B149" s="17" t="s">
         <v>513</v>
       </c>
@@ -13046,13 +13047,13 @@
         <v>94.389160251125702</v>
       </c>
       <c r="Q149" s="19">
-        <v>83.125652754774293</v>
+        <v>83.1653537321464</v>
       </c>
       <c r="R149" s="20" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="150" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:18" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="B150" s="17" t="s">
         <v>516</v>
       </c>
@@ -13099,13 +13100,13 @@
         <v>23.573088230534601</v>
       </c>
       <c r="Q150" s="19">
-        <v>27.487456813933601</v>
+        <v>27.485591964694301</v>
       </c>
       <c r="R150" s="20" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="151" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B151" s="17" t="s">
         <v>519</v>
       </c>
@@ -13158,7 +13159,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="152" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B152" s="17" t="s">
         <v>522</v>
       </c>
@@ -13211,7 +13212,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="153" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B153" s="17" t="s">
         <v>525</v>
       </c>
@@ -13258,13 +13259,13 @@
         <v>77.961743253753696</v>
       </c>
       <c r="Q153" s="19">
-        <v>80.155089787929199</v>
+        <v>80.201779572710294</v>
       </c>
       <c r="R153" s="20" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="154" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B154" s="17" t="s">
         <v>528</v>
       </c>
@@ -13317,7 +13318,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="155" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B155" s="17" t="s">
         <v>531</v>
       </c>
@@ -13364,13 +13365,13 @@
         <v>94.389160251125702</v>
       </c>
       <c r="Q155" s="19">
-        <v>83.125652754774293</v>
+        <v>83.1653537321464</v>
       </c>
       <c r="R155" s="20" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="156" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B156" s="17" t="s">
         <v>534</v>
       </c>
@@ -13423,7 +13424,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="157" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B157" s="17" t="s">
         <v>537</v>
       </c>
@@ -13476,7 +13477,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="158" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B158" s="17" t="s">
         <v>540</v>
       </c>
@@ -13529,7 +13530,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="159" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B159" s="17" t="s">
         <v>542</v>
       </c>
@@ -13555,7 +13556,7 @@
         <v>46</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K159" s="8">
         <v>2021</v>
@@ -13567,22 +13568,22 @@
         <v>79.3695839371007</v>
       </c>
       <c r="N159" s="19">
-        <v>87.638518081945307</v>
+        <v>87.700800641478594</v>
       </c>
       <c r="O159" s="19">
-        <v>84.172661870503603</v>
+        <v>84.8920863309353</v>
       </c>
       <c r="P159" s="19">
-        <v>94.487561091779199</v>
+        <v>94.573994823177998</v>
       </c>
       <c r="Q159" s="19">
-        <v>97.6762776409129</v>
+        <v>97.632499648325705</v>
       </c>
       <c r="R159" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="160" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B160" s="17" t="s">
         <v>547</v>
       </c>
@@ -13608,34 +13609,34 @@
         <v>46</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K160" s="8">
         <v>2021</v>
       </c>
       <c r="L160" s="19">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M160" s="19">
-        <v>99.510075352280097</v>
+        <v>99.246733535568396</v>
       </c>
       <c r="N160" s="19">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O160" s="19">
-        <v>90.647482014388501</v>
+        <v>92.086330935251794</v>
       </c>
       <c r="P160" s="19">
-        <v>96.564122373703299</v>
+        <v>97.270290560628595</v>
       </c>
       <c r="Q160" s="19">
-        <v>97.802361793339699</v>
+        <v>97.805754064306697</v>
       </c>
       <c r="R160" s="20" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="161" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B161" s="17" t="s">
         <v>551</v>
       </c>
@@ -13661,7 +13662,7 @@
         <v>46</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K161" s="8">
         <v>2021</v>
@@ -13673,22 +13674,22 @@
         <v>66.732464150518197</v>
       </c>
       <c r="N161" s="19">
-        <v>75.697106268687094</v>
+        <v>75.753918396518003</v>
       </c>
       <c r="O161" s="19">
-        <v>76.258992805755398</v>
+        <v>76.978417266187094</v>
       </c>
       <c r="P161" s="19">
-        <v>93.539047625573502</v>
+        <v>93.625481356972301</v>
       </c>
       <c r="Q161" s="19">
-        <v>97.447043056282794</v>
+        <v>97.4032033336984</v>
       </c>
       <c r="R161" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="162" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B162" s="17" t="s">
         <v>554</v>
       </c>
@@ -13714,7 +13715,7 @@
         <v>46</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K162" s="8">
         <v>2021</v>
@@ -13726,22 +13727,22 @@
         <v>80.151414197860305</v>
       </c>
       <c r="N162" s="19">
-        <v>87.721522683845606</v>
+        <v>87.783841550490294</v>
       </c>
       <c r="O162" s="19">
-        <v>84.172661870503603</v>
+        <v>84.8920863309353</v>
       </c>
       <c r="P162" s="19">
-        <v>94.487561091779199</v>
+        <v>94.573994823177998</v>
       </c>
       <c r="Q162" s="19">
-        <v>97.6762776409129</v>
+        <v>97.632499648325705</v>
       </c>
       <c r="R162" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="163" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B163" s="17" t="s">
         <v>557</v>
       </c>
@@ -13773,28 +13774,28 @@
         <v>2021</v>
       </c>
       <c r="L163" s="19">
-        <v>98.113207547169793</v>
+        <v>96.2264150943397</v>
       </c>
       <c r="M163" s="19">
-        <v>99.992255362735307</v>
+        <v>99.728913546023605</v>
       </c>
       <c r="N163" s="19">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O163" s="19">
-        <v>55.395683453237403</v>
+        <v>56.834532374100696</v>
       </c>
       <c r="P163" s="19">
-        <v>77.471577090085503</v>
+        <v>78.1777452770108</v>
       </c>
       <c r="Q163" s="19">
-        <v>48.428936219158501</v>
+        <v>48.475214130018699</v>
       </c>
       <c r="R163" s="20" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="164" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B164" s="17" t="s">
         <v>561</v>
       </c>
@@ -13832,22 +13833,22 @@
         <v>97.056735604318405</v>
       </c>
       <c r="N164" s="19">
-        <v>96.853966623684997</v>
+        <v>96.9118516661147</v>
       </c>
       <c r="O164" s="19">
-        <v>86.330935251798607</v>
+        <v>87.7697841726619</v>
       </c>
       <c r="P164" s="19">
-        <v>95.8963324610271</v>
+        <v>96.602500647952297</v>
       </c>
       <c r="Q164" s="19">
-        <v>98.159919688620406</v>
+        <v>98.160973705587395</v>
       </c>
       <c r="R164" s="20" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="165" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B165" s="17" t="s">
         <v>565</v>
       </c>
@@ -13885,22 +13886,22 @@
         <v>66.732464150518197</v>
       </c>
       <c r="N165" s="19">
-        <v>75.697106268687094</v>
+        <v>75.753918396518003</v>
       </c>
       <c r="O165" s="19">
-        <v>75.539568345323801</v>
+        <v>76.258992805755398</v>
       </c>
       <c r="P165" s="19">
-        <v>92.228849527654603</v>
+        <v>92.315283259053402</v>
       </c>
       <c r="Q165" s="19">
-        <v>95.299675873447796</v>
+        <v>95.259487168141803</v>
       </c>
       <c r="R165" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="166" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B166" s="17" t="s">
         <v>569</v>
       </c>
@@ -13926,7 +13927,7 @@
         <v>25</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K166" s="8">
         <v>2021</v>
@@ -13938,7 +13939,7 @@
         <v>79.3695839371007</v>
       </c>
       <c r="N166" s="19">
-        <v>87.638518081945307</v>
+        <v>87.700800641478594</v>
       </c>
       <c r="O166" s="19">
         <v>84.8920863309353</v>
@@ -13947,13 +13948,13 @@
         <v>94.573994823177998</v>
       </c>
       <c r="Q166" s="19">
-        <v>97.6762776409129</v>
+        <v>97.632499648325705</v>
       </c>
       <c r="R166" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="167" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B167" s="17" t="s">
         <v>572</v>
       </c>
@@ -13979,7 +13980,7 @@
         <v>25</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K167" s="8">
         <v>2021</v>
@@ -13991,7 +13992,7 @@
         <v>99.510075352280097</v>
       </c>
       <c r="N167" s="19">
-        <v>98.017805451654198</v>
+        <v>98.017021173889802</v>
       </c>
       <c r="O167" s="19">
         <v>92.805755395683505</v>
@@ -14000,13 +14001,13 @@
         <v>97.671684646242397</v>
       </c>
       <c r="Q167" s="19">
-        <v>97.802361793339699</v>
+        <v>97.805754064306697</v>
       </c>
       <c r="R167" s="20" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="168" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B168" s="17" t="s">
         <v>575</v>
       </c>
@@ -14032,7 +14033,7 @@
         <v>25</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K168" s="8">
         <v>2021</v>
@@ -14044,7 +14045,7 @@
         <v>66.732464150518197</v>
       </c>
       <c r="N168" s="19">
-        <v>75.697106268687094</v>
+        <v>75.753918396518003</v>
       </c>
       <c r="O168" s="19">
         <v>76.978417266187094</v>
@@ -14053,13 +14054,13 @@
         <v>93.625481356972301</v>
       </c>
       <c r="Q168" s="19">
-        <v>97.447043056282794</v>
+        <v>97.4032033336984</v>
       </c>
       <c r="R168" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="169" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B169" s="17" t="s">
         <v>578</v>
       </c>
@@ -14085,7 +14086,7 @@
         <v>25</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K169" s="8">
         <v>2021</v>
@@ -14097,7 +14098,7 @@
         <v>80.151414197860305</v>
       </c>
       <c r="N169" s="19">
-        <v>87.721522683845606</v>
+        <v>87.783841550490294</v>
       </c>
       <c r="O169" s="19">
         <v>84.8920863309353</v>
@@ -14106,13 +14107,13 @@
         <v>94.573994823177998</v>
       </c>
       <c r="Q169" s="19">
-        <v>97.6762776409129</v>
+        <v>97.632499648325705</v>
       </c>
       <c r="R169" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="170" spans="2:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="B170" s="17" t="s">
         <v>581</v>
       </c>
@@ -14150,7 +14151,7 @@
         <v>99.992255362735307</v>
       </c>
       <c r="N170" s="19">
-        <v>99.957777146479302</v>
+        <v>99.955522897595401</v>
       </c>
       <c r="O170" s="19">
         <v>58.9928057553957</v>
@@ -14159,13 +14160,13 @@
         <v>79.082672466006699</v>
       </c>
       <c r="Q170" s="19">
-        <v>48.428936219158501</v>
+        <v>48.475214130018699</v>
       </c>
       <c r="R170" s="20" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="171" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B171" s="17" t="s">
         <v>584</v>
       </c>
@@ -14203,7 +14204,7 @@
         <v>97.056735604318405</v>
       </c>
       <c r="N171" s="19">
-        <v>96.853966623684997</v>
+        <v>96.9118516661147</v>
       </c>
       <c r="O171" s="19">
         <v>87.7697841726619</v>
@@ -14212,13 +14213,13 @@
         <v>96.602500647952297</v>
       </c>
       <c r="Q171" s="19">
-        <v>98.159919688620406</v>
+        <v>98.160973705587395</v>
       </c>
       <c r="R171" s="20" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="172" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B172" s="17" t="s">
         <v>586</v>
       </c>
@@ -14256,7 +14257,7 @@
         <v>66.732464150518197</v>
       </c>
       <c r="N172" s="19">
-        <v>75.697106268687094</v>
+        <v>75.753918396518003</v>
       </c>
       <c r="O172" s="19">
         <v>76.258992805755398</v>
@@ -14265,13 +14266,13 @@
         <v>92.315283259053402</v>
       </c>
       <c r="Q172" s="19">
-        <v>95.299675873447796</v>
+        <v>95.259487168141803</v>
       </c>
       <c r="R172" s="20" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="173" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B173" s="17" t="s">
         <v>589</v>
       </c>
@@ -14309,7 +14310,7 @@
         <v>94.228416238997994</v>
       </c>
       <c r="N173" s="19">
-        <v>94.399066683093096</v>
+        <v>94.399966373589393</v>
       </c>
       <c r="O173" s="19">
         <v>78.417266187050402</v>
@@ -14318,13 +14319,13 @@
         <v>98.267413576569098</v>
       </c>
       <c r="Q173" s="19">
-        <v>99.3044555955438</v>
+        <v>99.304893545438205</v>
       </c>
       <c r="R173" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="174" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B174" s="17" t="s">
         <v>594</v>
       </c>
@@ -14362,7 +14363,7 @@
         <v>97.3194620237186</v>
       </c>
       <c r="N174" s="19">
-        <v>96.910669312160707</v>
+        <v>96.911286198569201</v>
       </c>
       <c r="O174" s="19">
         <v>66.906474820143899</v>
@@ -14371,13 +14372,13 @@
         <v>87.891251116724106</v>
       </c>
       <c r="Q174" s="19">
-        <v>69.596618050883905</v>
+        <v>69.608387120423103</v>
       </c>
       <c r="R174" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="175" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B175" s="17" t="s">
         <v>597</v>
       </c>
@@ -14415,7 +14416,7 @@
         <v>94.228416238997994</v>
       </c>
       <c r="N175" s="19">
-        <v>94.399066683093096</v>
+        <v>94.399966373589393</v>
       </c>
       <c r="O175" s="19">
         <v>78.417266187050402</v>
@@ -14424,13 +14425,13 @@
         <v>98.267413576569098</v>
       </c>
       <c r="Q175" s="19">
-        <v>99.3044555955438</v>
+        <v>99.304893545438205</v>
       </c>
       <c r="R175" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="176" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B176" s="17" t="s">
         <v>600</v>
       </c>
@@ -14468,7 +14469,7 @@
         <v>94.228416238997994</v>
       </c>
       <c r="N176" s="19">
-        <v>94.399066683093096</v>
+        <v>94.399966373589393</v>
       </c>
       <c r="O176" s="19">
         <v>79.136690647481998</v>
@@ -14477,13 +14478,13 @@
         <v>98.267603365992301</v>
       </c>
       <c r="Q176" s="19">
-        <v>99.304542963257106</v>
+        <v>99.304980989923394</v>
       </c>
       <c r="R176" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="177" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:18" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="B177" s="17" t="s">
         <v>603</v>
       </c>
@@ -14521,7 +14522,7 @@
         <v>97.3194620237186</v>
       </c>
       <c r="N177" s="19">
-        <v>96.910669312160707</v>
+        <v>96.911286198569201</v>
       </c>
       <c r="O177" s="19">
         <v>66.906474820143899</v>
@@ -14530,13 +14531,13 @@
         <v>87.891251116724106</v>
       </c>
       <c r="Q177" s="19">
-        <v>69.596618050883905</v>
+        <v>69.608387120423103</v>
       </c>
       <c r="R177" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="178" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B178" s="17" t="s">
         <v>606</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>94.228416238997994</v>
       </c>
       <c r="N178" s="19">
-        <v>94.399066683093096</v>
+        <v>94.399966373589393</v>
       </c>
       <c r="O178" s="19">
         <v>79.136690647481998</v>
@@ -14583,13 +14584,13 @@
         <v>98.267603365992301</v>
       </c>
       <c r="Q178" s="19">
-        <v>99.304542963257106</v>
+        <v>99.304980989923394</v>
       </c>
       <c r="R178" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="179" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B179" s="17" t="s">
         <v>608</v>
       </c>
@@ -14627,7 +14628,7 @@
         <v>95.025993273354004</v>
       </c>
       <c r="N179" s="19">
-        <v>94.485475543874401</v>
+        <v>94.486359487272907</v>
       </c>
       <c r="O179" s="19">
         <v>77.697841726618705</v>
@@ -14636,13 +14637,13 @@
         <v>97.814189128554503</v>
       </c>
       <c r="Q179" s="19">
-        <v>99.125344486806597</v>
+        <v>99.125881291716397</v>
       </c>
       <c r="R179" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="180" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B180" s="17" t="s">
         <v>594</v>
       </c>
@@ -14680,7 +14681,7 @@
         <v>97.3194620237186</v>
       </c>
       <c r="N180" s="19">
-        <v>96.910669312160707</v>
+        <v>96.911286198569201</v>
       </c>
       <c r="O180" s="19">
         <v>66.906474820143899</v>
@@ -14689,13 +14690,13 @@
         <v>87.891251116724106</v>
       </c>
       <c r="Q180" s="19">
-        <v>69.596618050883905</v>
+        <v>69.608387120423103</v>
       </c>
       <c r="R180" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="181" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B181" s="17" t="s">
         <v>611</v>
       </c>
@@ -14733,7 +14734,7 @@
         <v>95.025993273354004</v>
       </c>
       <c r="N181" s="19">
-        <v>94.485475543874401</v>
+        <v>94.486359487272907</v>
       </c>
       <c r="O181" s="19">
         <v>77.697841726618705</v>
@@ -14742,13 +14743,13 @@
         <v>97.814189128554503</v>
       </c>
       <c r="Q181" s="19">
-        <v>99.125344486806597</v>
+        <v>99.125881291716397</v>
       </c>
       <c r="R181" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="182" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B182" s="17" t="s">
         <v>614</v>
       </c>
@@ -14786,7 +14787,7 @@
         <v>95.025993273354004</v>
       </c>
       <c r="N182" s="19">
-        <v>94.485475543874401</v>
+        <v>94.486359487272907</v>
       </c>
       <c r="O182" s="19">
         <v>78.417266187050402</v>
@@ -14795,13 +14796,13 @@
         <v>97.814378917977606</v>
       </c>
       <c r="Q182" s="19">
-        <v>99.125431854519803</v>
+        <v>99.125968736201699</v>
       </c>
       <c r="R182" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="183" spans="2:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:18" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="B183" s="17" t="s">
         <v>617</v>
       </c>
@@ -14839,7 +14840,7 @@
         <v>97.3194620237186</v>
       </c>
       <c r="N183" s="19">
-        <v>96.910669312160707</v>
+        <v>96.911286198569201</v>
       </c>
       <c r="O183" s="19">
         <v>65.467625899280605</v>
@@ -14848,13 +14849,13 @@
         <v>87.123615568893996</v>
       </c>
       <c r="Q183" s="19">
-        <v>69.417506942146602</v>
+        <v>69.429374866701295</v>
       </c>
       <c r="R183" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="184" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B184" s="17" t="s">
         <v>620</v>
       </c>
@@ -14892,7 +14893,7 @@
         <v>95.025993273354004</v>
       </c>
       <c r="N184" s="19">
-        <v>94.485475543874401</v>
+        <v>94.486359487272907</v>
       </c>
       <c r="O184" s="19">
         <v>78.417266187050402</v>
@@ -14901,13 +14902,13 @@
         <v>97.814378917977606</v>
       </c>
       <c r="Q184" s="19">
-        <v>99.125431854519803</v>
+        <v>99.125968736201699</v>
       </c>
       <c r="R184" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="185" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B185" s="17" t="s">
         <v>622</v>
       </c>
@@ -14933,7 +14934,7 @@
         <v>46</v>
       </c>
       <c r="J185" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K185" s="8">
         <v>2020</v>
@@ -14945,7 +14946,7 @@
         <v>77.628004409816299</v>
       </c>
       <c r="N185" s="19">
-        <v>86.006887203494699</v>
+        <v>86.073284633021501</v>
       </c>
       <c r="O185" s="19">
         <v>78.417266187050402</v>
@@ -14954,13 +14955,13 @@
         <v>92.538377519853</v>
       </c>
       <c r="Q185" s="19">
-        <v>95.799535469630101</v>
+        <v>95.792491692227699</v>
       </c>
       <c r="R185" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="186" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B186" s="17" t="s">
         <v>626</v>
       </c>
@@ -14986,7 +14987,7 @@
         <v>46</v>
       </c>
       <c r="J186" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K186" s="8">
         <v>2020</v>
@@ -14998,7 +14999,7 @@
         <v>86.562989557795703</v>
       </c>
       <c r="N186" s="19">
-        <v>93.328728734915401</v>
+        <v>93.424005373476803</v>
       </c>
       <c r="O186" s="19">
         <v>83.453237410072006</v>
@@ -15007,13 +15008,13 @@
         <v>71.582903619559801</v>
       </c>
       <c r="Q186" s="19">
-        <v>76.827261941801495</v>
+        <v>76.840203500053605</v>
       </c>
       <c r="R186" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="187" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B187" s="17" t="s">
         <v>628</v>
       </c>
@@ -15039,7 +15040,7 @@
         <v>46</v>
       </c>
       <c r="J187" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K187" s="8">
         <v>2020</v>
@@ -15051,7 +15052,7 @@
         <v>74.068129864480596</v>
       </c>
       <c r="N187" s="19">
-        <v>83.115228323258293</v>
+        <v>83.180874038011396</v>
       </c>
       <c r="O187" s="19">
         <v>73.381294964028797</v>
@@ -15060,13 +15061,13 @@
         <v>91.620166604281096</v>
       </c>
       <c r="Q187" s="19">
-        <v>95.515596839430899</v>
+        <v>95.508702997457306</v>
       </c>
       <c r="R187" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="188" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B188" s="17" t="s">
         <v>631</v>
       </c>
@@ -15092,7 +15093,7 @@
         <v>46</v>
       </c>
       <c r="J188" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K188" s="8">
         <v>2020</v>
@@ -15104,7 +15105,7 @@
         <v>71.216868469707407</v>
       </c>
       <c r="N188" s="19">
-        <v>86.009850572724403</v>
+        <v>86.103376924362394</v>
       </c>
       <c r="O188" s="19">
         <v>74.820143884892104</v>
@@ -15113,13 +15114,13 @@
         <v>70.280600655870103</v>
       </c>
       <c r="Q188" s="19">
-        <v>76.332256638367994</v>
+        <v>76.345563049670204</v>
       </c>
       <c r="R188" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="189" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B189" s="17" t="s">
         <v>633</v>
       </c>
@@ -15145,7 +15146,7 @@
         <v>25</v>
       </c>
       <c r="J189" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K189" s="8">
         <v>2020</v>
@@ -15157,7 +15158,7 @@
         <v>77.628004409816299</v>
       </c>
       <c r="N189" s="19">
-        <v>86.006887203494699</v>
+        <v>86.073284633021501</v>
       </c>
       <c r="O189" s="19">
         <v>78.417266187050402</v>
@@ -15166,13 +15167,13 @@
         <v>92.538377519853</v>
       </c>
       <c r="Q189" s="19">
-        <v>95.799535469630101</v>
+        <v>95.792491692227699</v>
       </c>
       <c r="R189" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="190" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B190" s="17" t="s">
         <v>635</v>
       </c>
@@ -15198,7 +15199,7 @@
         <v>25</v>
       </c>
       <c r="J190" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K190" s="8">
         <v>2020</v>
@@ -15210,7 +15211,7 @@
         <v>86.562989557795703</v>
       </c>
       <c r="N190" s="19">
-        <v>93.328728734915401</v>
+        <v>93.424005373476803</v>
       </c>
       <c r="O190" s="19">
         <v>83.453237410072006</v>
@@ -15219,13 +15220,13 @@
         <v>71.582903619559801</v>
       </c>
       <c r="Q190" s="19">
-        <v>76.827261941801495</v>
+        <v>76.840203500053605</v>
       </c>
       <c r="R190" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="191" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B191" s="17" t="s">
         <v>637</v>
       </c>
@@ -15251,7 +15252,7 @@
         <v>25</v>
       </c>
       <c r="J191" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K191" s="8">
         <v>2020</v>
@@ -15263,7 +15264,7 @@
         <v>74.068129864480596</v>
       </c>
       <c r="N191" s="19">
-        <v>83.115228323258293</v>
+        <v>83.180874038011396</v>
       </c>
       <c r="O191" s="19">
         <v>73.381294964028797</v>
@@ -15272,13 +15273,13 @@
         <v>91.620166604281096</v>
       </c>
       <c r="Q191" s="19">
-        <v>95.515596839430899</v>
+        <v>95.508702997457306</v>
       </c>
       <c r="R191" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="192" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B192" s="17" t="s">
         <v>639</v>
       </c>
@@ -15304,7 +15305,7 @@
         <v>25</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="K192" s="8">
         <v>2020</v>
@@ -15316,7 +15317,7 @@
         <v>71.216868469707407</v>
       </c>
       <c r="N192" s="19">
-        <v>86.009850572724403</v>
+        <v>86.103376924362394</v>
       </c>
       <c r="O192" s="19">
         <v>74.820143884892104</v>
@@ -15325,13 +15326,13 @@
         <v>70.280600655870103</v>
       </c>
       <c r="Q192" s="19">
-        <v>76.332256638367994</v>
+        <v>76.345563049670204</v>
       </c>
       <c r="R192" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="193" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B193" s="17" t="s">
         <v>641</v>
       </c>
@@ -15369,7 +15370,7 @@
         <v>60.156489368935802</v>
       </c>
       <c r="N193" s="19">
-        <v>76.452655330687804</v>
+        <v>76.516788666870397</v>
       </c>
       <c r="O193" s="19">
         <v>68.345323741007206</v>
@@ -15378,13 +15379,13 @@
         <v>68.839533329530695</v>
       </c>
       <c r="Q193" s="19">
-        <v>75.409158439106093</v>
+        <v>75.413680463965207</v>
       </c>
       <c r="R193" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="194" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B194" s="17" t="s">
         <v>645</v>
       </c>
@@ -15422,7 +15423,7 @@
         <v>77.628004409816299</v>
       </c>
       <c r="N194" s="19">
-        <v>86.006887203494699</v>
+        <v>86.073284633021501</v>
       </c>
       <c r="O194" s="19">
         <v>76.258992805755398</v>
@@ -15431,13 +15432,13 @@
         <v>70.128200479276899</v>
       </c>
       <c r="Q194" s="19">
-        <v>75.889296394549305</v>
+        <v>75.893655219618196</v>
       </c>
       <c r="R194" s="20" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="195" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B195" s="17" t="s">
         <v>647</v>
       </c>
@@ -15490,7 +15491,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="196" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B196" s="17" t="s">
         <v>654</v>
       </c>
@@ -15543,7 +15544,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="197" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B197" s="17" t="s">
         <v>657</v>
       </c>
@@ -15596,7 +15597,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="198" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B198" s="17" t="s">
         <v>660</v>
       </c>
@@ -15649,7 +15650,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="199" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B199" s="17" t="s">
         <v>663</v>
       </c>
@@ -15702,7 +15703,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="200" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B200" s="17" t="s">
         <v>666</v>
       </c>
@@ -15749,13 +15750,13 @@
         <v>99.999062877328598</v>
       </c>
       <c r="Q200" s="19">
-        <v>99.999865274479205</v>
+        <v>99.999865209436294</v>
       </c>
       <c r="R200" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="201" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B201" s="17" t="s">
         <v>669</v>
       </c>
@@ -15808,7 +15809,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="202" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:18" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="B202" s="17" t="s">
         <v>672</v>
       </c>
@@ -15846,7 +15847,7 @@
         <v>99.209855783686095</v>
       </c>
       <c r="N202" s="19">
-        <v>99.917464375381797</v>
+        <v>99.917440602937504</v>
       </c>
       <c r="O202" s="19">
         <v>92.086330935251794</v>
@@ -15855,13 +15856,13 @@
         <v>98.938545270436506</v>
       </c>
       <c r="Q202" s="19">
-        <v>99.527923787777297</v>
+        <v>99.528170445556299</v>
       </c>
       <c r="R202" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="203" spans="2:18" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:18" ht="30.6" x14ac:dyDescent="0.3">
       <c r="B203" s="17" t="s">
         <v>676</v>
       </c>
@@ -15908,13 +15909,13 @@
         <v>99.813607472330602</v>
       </c>
       <c r="Q203" s="19">
-        <v>99.435630885846805</v>
+        <v>99.435906304672201</v>
       </c>
       <c r="R203" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="204" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B204" s="17" t="s">
         <v>680</v>
       </c>
@@ -15961,13 +15962,13 @@
         <v>99.998885980514501</v>
       </c>
       <c r="Q204" s="19">
-        <v>99.998312891586195</v>
+        <v>99.998314921135503</v>
       </c>
       <c r="R204" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="205" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B205" s="17" t="s">
         <v>683</v>
       </c>
@@ -16020,7 +16021,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="206" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B206" s="17" t="s">
         <v>686</v>
       </c>
@@ -16067,13 +16068,13 @@
         <v>99.813648718972303</v>
       </c>
       <c r="Q206" s="19">
-        <v>99.4241564917304</v>
+        <v>99.424475060710705</v>
       </c>
       <c r="R206" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="207" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B207" s="17" t="s">
         <v>689</v>
       </c>
@@ -16120,13 +16121,13 @@
         <v>99.998283979477506</v>
       </c>
       <c r="Q207" s="19">
-        <v>99.998312891586195</v>
+        <v>99.998314921135503</v>
       </c>
       <c r="R207" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="208" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B208" s="17" t="s">
         <v>692</v>
       </c>
@@ -16164,7 +16165,7 @@
         <v>95.9107672426329</v>
       </c>
       <c r="N208" s="19">
-        <v>97.975752642675502</v>
+        <v>97.975565002236905</v>
       </c>
       <c r="O208" s="19">
         <v>87.050359712230204</v>
@@ -16173,13 +16174,13 @@
         <v>99.166674080870095</v>
       </c>
       <c r="Q208" s="19">
-        <v>99.830565457956496</v>
+        <v>99.830646816852607</v>
       </c>
       <c r="R208" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="209" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B209" s="17" t="s">
         <v>695</v>
       </c>
@@ -16226,13 +16227,13 @@
         <v>99.998885980514501</v>
       </c>
       <c r="Q209" s="19">
-        <v>99.998312891586195</v>
+        <v>99.998314921135503</v>
       </c>
       <c r="R209" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="210" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B210" s="17" t="s">
         <v>697</v>
       </c>
@@ -16270,7 +16271,7 @@
         <v>83.879577098209097</v>
       </c>
       <c r="N210" s="19">
-        <v>91.124174741348398</v>
+        <v>91.123669047004597</v>
       </c>
       <c r="O210" s="19">
         <v>79.856115107913695</v>
@@ -16279,13 +16280,13 @@
         <v>95.801201622802694</v>
       </c>
       <c r="Q210" s="19">
-        <v>98.491185650021094</v>
+        <v>98.492240777186396</v>
       </c>
       <c r="R210" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="211" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B211" s="17" t="s">
         <v>700</v>
       </c>
@@ -16323,7 +16324,7 @@
         <v>83.879577098209097</v>
       </c>
       <c r="N211" s="19">
-        <v>91.124174741348398</v>
+        <v>91.123669047004597</v>
       </c>
       <c r="O211" s="19">
         <v>79.856115107913695</v>
@@ -16332,13 +16333,13 @@
         <v>95.801201622802694</v>
       </c>
       <c r="Q211" s="19">
-        <v>98.491185650021094</v>
+        <v>98.492240777186396</v>
       </c>
       <c r="R211" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="212" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B212" s="17" t="s">
         <v>703</v>
       </c>
@@ -16376,7 +16377,7 @@
         <v>83.879577098209097</v>
       </c>
       <c r="N212" s="19">
-        <v>91.124174741348398</v>
+        <v>91.123669047004597</v>
       </c>
       <c r="O212" s="19">
         <v>79.856115107913695</v>
@@ -16385,13 +16386,13 @@
         <v>95.801201622802694</v>
       </c>
       <c r="Q212" s="19">
-        <v>98.491185650021094</v>
+        <v>98.492240777186396</v>
       </c>
       <c r="R212" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="213" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B213" s="17" t="s">
         <v>706</v>
       </c>
@@ -16429,7 +16430,7 @@
         <v>79.004533567360994</v>
       </c>
       <c r="N213" s="19">
-        <v>88.896370473137694</v>
+        <v>88.897485056191599</v>
       </c>
       <c r="O213" s="19">
         <v>76.978417266187094</v>
@@ -16438,13 +16439,13 @@
         <v>95.714422285715401</v>
       </c>
       <c r="Q213" s="19">
-        <v>98.355996007781599</v>
+        <v>98.357363562363801</v>
       </c>
       <c r="R213" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="214" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B214" s="17" t="s">
         <v>709</v>
       </c>
@@ -16482,7 +16483,7 @@
         <v>78.090062380029295</v>
       </c>
       <c r="N214" s="19">
-        <v>87.511299015056295</v>
+        <v>87.511229589217507</v>
       </c>
       <c r="O214" s="19">
         <v>64.748201438848895</v>
@@ -16491,13 +16492,13 @@
         <v>93.971702885235004</v>
       </c>
       <c r="Q214" s="19">
-        <v>94.815024496742893</v>
+        <v>94.803744337442396</v>
       </c>
       <c r="R214" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="215" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B215" s="17" t="s">
         <v>712</v>
       </c>
@@ -16535,7 +16536,7 @@
         <v>98.816763743437306</v>
       </c>
       <c r="N215" s="19">
-        <v>99.437733288141104</v>
+        <v>99.437848444953104</v>
       </c>
       <c r="O215" s="19">
         <v>88.489208633093497</v>
@@ -16544,13 +16545,13 @@
         <v>77.5712224924618</v>
       </c>
       <c r="Q215" s="19">
-        <v>80.818869976083803</v>
+        <v>80.829445447793304</v>
       </c>
       <c r="R215" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="216" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B216" s="17" t="s">
         <v>715</v>
       </c>
@@ -16603,7 +16604,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="217" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B217" s="17" t="s">
         <v>719</v>
       </c>
@@ -16650,13 +16651,13 @@
         <v>99.992271169886294</v>
       </c>
       <c r="Q217" s="19">
-        <v>99.990677571264598</v>
+        <v>99.990625637221399</v>
       </c>
       <c r="R217" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="218" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B218" s="17" t="s">
         <v>722</v>
       </c>
@@ -16694,7 +16695,7 @@
         <v>93.518980182821196</v>
       </c>
       <c r="N218" s="19">
-        <v>95.363419120686203</v>
+        <v>95.367577118649194</v>
       </c>
       <c r="O218" s="19">
         <v>87.050359712230204</v>
@@ -16703,13 +16704,13 @@
         <v>98.916359412539506</v>
       </c>
       <c r="Q218" s="19">
-        <v>98.733548817643495</v>
+        <v>98.733969199794601</v>
       </c>
       <c r="R218" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="219" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B219" s="17" t="s">
         <v>725</v>
       </c>
@@ -16747,7 +16748,7 @@
         <v>93.518980182821196</v>
       </c>
       <c r="N219" s="19">
-        <v>95.363419120686203</v>
+        <v>95.367577118649194</v>
       </c>
       <c r="O219" s="19">
         <v>86.330935251798607</v>
@@ -16756,13 +16757,13 @@
         <v>98.807906817720394</v>
       </c>
       <c r="Q219" s="19">
-        <v>98.600989196205703</v>
+        <v>98.601485319803302</v>
       </c>
       <c r="R219" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="220" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B220" s="17" t="s">
         <v>728</v>
       </c>
@@ -16800,7 +16801,7 @@
         <v>93.518980182821196</v>
       </c>
       <c r="N220" s="19">
-        <v>95.363419120686203</v>
+        <v>95.367577118649194</v>
       </c>
       <c r="O220" s="19">
         <v>86.330935251798607</v>
@@ -16809,13 +16810,13 @@
         <v>98.807906817720394</v>
       </c>
       <c r="Q220" s="19">
-        <v>98.600989196205703</v>
+        <v>98.601485319803302</v>
       </c>
       <c r="R220" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="221" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B221" s="17" t="s">
         <v>731</v>
       </c>
@@ -16853,7 +16854,7 @@
         <v>95.916360374566693</v>
       </c>
       <c r="N221" s="19">
-        <v>97.987206194007001</v>
+        <v>97.991959445392197</v>
       </c>
       <c r="O221" s="19">
         <v>87.7697841726619</v>
@@ -16862,13 +16863,13 @@
         <v>99.571644748137302</v>
       </c>
       <c r="Q221" s="19">
-        <v>99.451114794937396</v>
+        <v>99.451420859024296</v>
       </c>
       <c r="R221" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="222" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B222" s="17" t="s">
         <v>734</v>
       </c>
@@ -16906,7 +16907,7 @@
         <v>95.916360374566693</v>
       </c>
       <c r="N222" s="19">
-        <v>97.987206194007001</v>
+        <v>97.991959445392197</v>
       </c>
       <c r="O222" s="19">
         <v>87.050359712230204</v>
@@ -16915,13 +16916,13 @@
         <v>99.411822164040998</v>
       </c>
       <c r="Q222" s="19">
-        <v>99.333561036980498</v>
+        <v>99.333969336189796</v>
       </c>
       <c r="R222" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="223" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B223" s="17" t="s">
         <v>737</v>
       </c>
@@ -16959,7 +16960,7 @@
         <v>95.916360374566693</v>
       </c>
       <c r="N223" s="19">
-        <v>97.987206194007001</v>
+        <v>97.991959445392197</v>
       </c>
       <c r="O223" s="19">
         <v>87.050359712230204</v>
@@ -16968,13 +16969,13 @@
         <v>99.435558083067406</v>
       </c>
       <c r="Q223" s="19">
-        <v>99.140580776667605</v>
+        <v>99.141802120151297</v>
       </c>
       <c r="R223" s="20" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="224" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B224" s="17" t="s">
         <v>740</v>
       </c>
@@ -17012,7 +17013,7 @@
         <v>99.498514431312799</v>
       </c>
       <c r="N224" s="19">
-        <v>97.755145461721597</v>
+        <v>97.755597081134496</v>
       </c>
       <c r="O224" s="19">
         <v>94.244604316546798</v>
@@ -17021,13 +17022,13 @@
         <v>98.0055240245281</v>
       </c>
       <c r="Q224" s="19">
-        <v>98.531918640356906</v>
+        <v>98.532376663354697</v>
       </c>
       <c r="R224" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="225" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B225" s="17" t="s">
         <v>744</v>
       </c>
@@ -17065,7 +17066,7 @@
         <v>99.498514431312799</v>
       </c>
       <c r="N225" s="19">
-        <v>97.755145461721597</v>
+        <v>97.755597081134496</v>
       </c>
       <c r="O225" s="19">
         <v>79.856115107913695</v>
@@ -17074,13 +17075,13 @@
         <v>87.980391620096597</v>
       </c>
       <c r="Q225" s="19">
-        <v>79.886893212725795</v>
+        <v>79.844976525843094</v>
       </c>
       <c r="R225" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="226" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B226" s="17" t="s">
         <v>747</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>99.498514431312799</v>
       </c>
       <c r="N226" s="19">
-        <v>97.755145461721597</v>
+        <v>97.755597081134496</v>
       </c>
       <c r="O226" s="19">
         <v>94.964028776978395</v>
@@ -17127,13 +17128,13 @@
         <v>98.050482216620594</v>
       </c>
       <c r="Q226" s="19">
-        <v>98.564732948564497</v>
+        <v>98.565173072055302</v>
       </c>
       <c r="R226" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="227" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B227" s="17" t="s">
         <v>750</v>
       </c>
@@ -17171,7 +17172,7 @@
         <v>99.498514431312799</v>
       </c>
       <c r="N227" s="19">
-        <v>97.755145461721597</v>
+        <v>97.755597081134496</v>
       </c>
       <c r="O227" s="19">
         <v>94.244604316546798</v>
@@ -17180,13 +17181,13 @@
         <v>98.0055240245281</v>
       </c>
       <c r="Q227" s="19">
-        <v>98.531918640356906</v>
+        <v>98.532376663354697</v>
       </c>
       <c r="R227" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="228" spans="2:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B228" s="17" t="s">
         <v>753</v>
       </c>
@@ -17212,7 +17213,7 @@
         <v>46</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>129</v>
+        <v>652</v>
       </c>
       <c r="K228" s="8">
         <v>2019</v>
@@ -17224,7 +17225,7 @@
         <v>98.935322458775602</v>
       </c>
       <c r="N228" s="19">
-        <v>99.820200243854998</v>
+        <v>99.8202325109214</v>
       </c>
       <c r="O228" s="19">
         <v>94.964028776978395</v>
@@ -17233,13 +17234,13 @@
         <v>98.157730433113201</v>
       </c>
       <c r="Q228" s="19">
-        <v>99.769911029468105</v>
+        <v>99.769686193805398</v>
       </c>
       <c r="R228" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="229" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:18" ht="91.8" x14ac:dyDescent="0.3">
       <c r="B229" s="17" t="s">
         <v>756</v>
       </c>
@@ -17265,34 +17266,34 @@
         <v>46</v>
       </c>
       <c r="J229" s="8" t="s">
-        <v>129</v>
+        <v>652</v>
       </c>
       <c r="K229" s="8">
         <v>2019</v>
       </c>
       <c r="L229" s="19">
-        <v>79.245283018867894</v>
+        <v>71.698113207547195</v>
       </c>
       <c r="M229" s="19">
-        <v>93.051412015618496</v>
+        <v>89.634686902313206</v>
       </c>
       <c r="N229" s="19">
-        <v>96.972839408985607</v>
+        <v>91.662715466461805</v>
       </c>
       <c r="O229" s="19">
-        <v>79.136690647481998</v>
+        <v>76.978417266187094</v>
       </c>
       <c r="P229" s="19">
-        <v>95.624389440976699</v>
+        <v>95.618431160665097</v>
       </c>
       <c r="Q229" s="19">
-        <v>97.880426425184794</v>
+        <v>97.880192058655794</v>
       </c>
       <c r="R229" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="230" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B230" s="17" t="s">
         <v>759</v>
       </c>
@@ -17318,7 +17319,7 @@
         <v>46</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>129</v>
+        <v>652</v>
       </c>
       <c r="K230" s="8">
         <v>2019</v>
@@ -17330,22 +17331,22 @@
         <v>98.935322458775602</v>
       </c>
       <c r="N230" s="19">
-        <v>99.820200243854998</v>
+        <v>99.8202325109214</v>
       </c>
       <c r="O230" s="19">
-        <v>91.366906474820198</v>
+        <v>89.208633093525194</v>
       </c>
       <c r="P230" s="19">
-        <v>98.094653264433305</v>
+        <v>97.948819866410005</v>
       </c>
       <c r="Q230" s="19">
-        <v>99.717262613102903</v>
+        <v>99.168792112545304</v>
       </c>
       <c r="R230" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="231" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B231" s="17" t="s">
         <v>762</v>
       </c>
@@ -17386,19 +17387,19 @@
         <v>100</v>
       </c>
       <c r="O231" s="19">
-        <v>93.525179856115102</v>
+        <v>92.805755395683505</v>
       </c>
       <c r="P231" s="19">
-        <v>99.101753051314304</v>
+        <v>98.608245939036394</v>
       </c>
       <c r="Q231" s="19">
-        <v>99.994328730860104</v>
+        <v>99.943017707137997</v>
       </c>
       <c r="R231" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="232" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B232" s="17" t="s">
         <v>765</v>
       </c>
@@ -17439,19 +17440,19 @@
         <v>100</v>
       </c>
       <c r="O232" s="19">
-        <v>96.402877697841802</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P232" s="19">
-        <v>99.104461993405906</v>
+        <v>98.610954881127896</v>
       </c>
       <c r="Q232" s="19">
-        <v>100</v>
+        <v>99.948698447527207</v>
       </c>
       <c r="R232" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="233" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B233" s="17" t="s">
         <v>768</v>
       </c>
@@ -17492,19 +17493,19 @@
         <v>100</v>
       </c>
       <c r="O233" s="19">
-        <v>88.489208633093497</v>
+        <v>87.7697841726619</v>
       </c>
       <c r="P233" s="19">
-        <v>98.044740273098597</v>
+        <v>97.551233160820601</v>
       </c>
       <c r="Q233" s="19">
-        <v>97.375146494706897</v>
+        <v>97.325051137889503</v>
       </c>
       <c r="R233" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="234" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B234" s="17" t="s">
         <v>771</v>
       </c>
@@ -17545,19 +17546,19 @@
         <v>100</v>
       </c>
       <c r="O234" s="19">
-        <v>95.683453237410106</v>
+        <v>94.964028776978395</v>
       </c>
       <c r="P234" s="19">
-        <v>99.103927322873105</v>
+        <v>98.610420210595095</v>
       </c>
       <c r="Q234" s="19">
-        <v>99.998312891586195</v>
+        <v>99.947013368662596</v>
       </c>
       <c r="R234" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="235" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:18" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="B235" s="17" t="s">
         <v>774</v>
       </c>
@@ -17583,7 +17584,7 @@
         <v>46</v>
       </c>
       <c r="J235" s="8" t="s">
-        <v>129</v>
+        <v>652</v>
       </c>
       <c r="K235" s="8">
         <v>2019</v>
@@ -17595,7 +17596,7 @@
         <v>98.927354678198597</v>
       </c>
       <c r="N235" s="19">
-        <v>99.776726717275395</v>
+        <v>99.771669109138699</v>
       </c>
       <c r="O235" s="19">
         <v>86.330935251798607</v>
@@ -17604,13 +17605,13 @@
         <v>98.145749670726701</v>
       </c>
       <c r="Q235" s="19">
-        <v>99.758407881889994</v>
+        <v>99.758177396641997</v>
       </c>
       <c r="R235" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="236" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B236" s="17" t="s">
         <v>777</v>
       </c>
@@ -17636,34 +17637,34 @@
         <v>46</v>
       </c>
       <c r="J236" s="8" t="s">
-        <v>129</v>
+        <v>652</v>
       </c>
       <c r="K236" s="8">
         <v>2019</v>
       </c>
       <c r="L236" s="19">
-        <v>77.358490566037801</v>
+        <v>69.811320754717002</v>
       </c>
       <c r="M236" s="19">
-        <v>93.043444235041505</v>
+        <v>89.626719121736201</v>
       </c>
       <c r="N236" s="19">
-        <v>96.929365882406003</v>
+        <v>91.614152064679104</v>
       </c>
       <c r="O236" s="19">
-        <v>74.100719424460394</v>
+        <v>73.381294964028797</v>
       </c>
       <c r="P236" s="19">
-        <v>94.505325079705102</v>
+        <v>94.502010100500797</v>
       </c>
       <c r="Q236" s="19">
-        <v>95.211495956233506</v>
+        <v>95.212863471373197</v>
       </c>
       <c r="R236" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="237" spans="2:18" ht="178.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:18" ht="163.19999999999999" x14ac:dyDescent="0.3">
       <c r="B237" s="17" t="s">
         <v>780</v>
       </c>
@@ -17710,13 +17711,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q237" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R237" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="238" spans="2:18" ht="189" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:18" ht="173.4" x14ac:dyDescent="0.3">
       <c r="B238" s="17" t="s">
         <v>786</v>
       </c>
@@ -17763,13 +17764,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q238" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R238" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="239" spans="2:18" ht="210" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:18" ht="193.8" x14ac:dyDescent="0.3">
       <c r="B239" s="17" t="s">
         <v>789</v>
       </c>
@@ -17816,13 +17817,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q239" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R239" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="240" spans="2:18" ht="199.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:18" ht="183.6" x14ac:dyDescent="0.3">
       <c r="B240" s="17" t="s">
         <v>792</v>
       </c>
@@ -17869,13 +17870,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q240" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R240" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="241" spans="2:18" ht="178.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:18" ht="163.19999999999999" x14ac:dyDescent="0.3">
       <c r="B241" s="17" t="s">
         <v>795</v>
       </c>
@@ -17922,13 +17923,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q241" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R241" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="242" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:18" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="B242" s="17" t="s">
         <v>798</v>
       </c>
@@ -17975,13 +17976,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q242" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R242" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="243" spans="2:18" ht="157.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:18" ht="142.80000000000001" x14ac:dyDescent="0.3">
       <c r="B243" s="17" t="s">
         <v>801</v>
       </c>
@@ -18028,13 +18029,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q243" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R243" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="244" spans="2:18" ht="168" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:18" ht="153" x14ac:dyDescent="0.3">
       <c r="B244" s="17" t="s">
         <v>804</v>
       </c>
@@ -18081,13 +18082,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q244" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R244" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="245" spans="2:18" ht="168" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:18" ht="153" x14ac:dyDescent="0.3">
       <c r="B245" s="17" t="s">
         <v>807</v>
       </c>
@@ -18125,7 +18126,7 @@
         <v>89.793453429043296</v>
       </c>
       <c r="N245" s="19">
-        <v>95.888019054328794</v>
+        <v>95.886819532376705</v>
       </c>
       <c r="O245" s="19">
         <v>79.136690647481998</v>
@@ -18134,13 +18135,13 @@
         <v>99.133443088414694</v>
       </c>
       <c r="Q245" s="19">
-        <v>99.849351888639305</v>
+        <v>99.849538428569105</v>
       </c>
       <c r="R245" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="246" spans="2:18" ht="178.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:18" ht="163.19999999999999" x14ac:dyDescent="0.3">
       <c r="B246" s="17" t="s">
         <v>810</v>
       </c>
@@ -18187,13 +18188,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q246" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R246" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="247" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B247" s="17" t="s">
         <v>813</v>
       </c>
@@ -18246,7 +18247,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="248" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B248" s="17" t="s">
         <v>818</v>
       </c>
@@ -18293,13 +18294,13 @@
         <v>99.996959595885698</v>
       </c>
       <c r="Q248" s="19">
-        <v>99.997992790369906</v>
+        <v>99.997993385714693</v>
       </c>
       <c r="R248" s="20" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="249" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B249" s="17" t="s">
         <v>821</v>
       </c>
@@ -18346,13 +18347,13 @@
         <v>99.996959595885698</v>
       </c>
       <c r="Q249" s="19">
-        <v>99.997992790369906</v>
+        <v>99.997993385714693</v>
       </c>
       <c r="R249" s="20" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="250" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B250" s="17" t="s">
         <v>824</v>
       </c>
@@ -18405,7 +18406,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="251" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B251" s="17" t="s">
         <v>827</v>
       </c>
@@ -18452,13 +18453,13 @@
         <v>99.996959595885698</v>
       </c>
       <c r="Q251" s="19">
-        <v>99.997992790369906</v>
+        <v>99.997993385714693</v>
       </c>
       <c r="R251" s="20" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="252" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B252" s="17" t="s">
         <v>830</v>
       </c>
@@ -18505,13 +18506,13 @@
         <v>99.996959595885698</v>
       </c>
       <c r="Q252" s="19">
-        <v>99.997992790369906</v>
+        <v>99.997993385714693</v>
       </c>
       <c r="R252" s="20" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="253" spans="2:18" ht="168" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:18" ht="153" x14ac:dyDescent="0.3">
       <c r="B253" s="17" t="s">
         <v>833</v>
       </c>
@@ -18558,13 +18559,13 @@
         <v>99.997088138298295</v>
       </c>
       <c r="Q253" s="19">
-        <v>99.995086756932196</v>
+        <v>99.995092179295099</v>
       </c>
       <c r="R253" s="20" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="254" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B254" s="17" t="s">
         <v>836</v>
       </c>
@@ -18602,7 +18603,7 @@
         <v>65.960142717195197</v>
       </c>
       <c r="N254" s="19">
-        <v>56.451008543614101</v>
+        <v>56.495188534587598</v>
       </c>
       <c r="O254" s="19">
         <v>33.093525179856101</v>
@@ -18611,13 +18612,13 @@
         <v>67.035484109395199</v>
       </c>
       <c r="Q254" s="19">
-        <v>40.826560102789799</v>
+        <v>40.853196989468799</v>
       </c>
       <c r="R254" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="255" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B255" s="17" t="s">
         <v>840</v>
       </c>
@@ -18655,7 +18656,7 @@
         <v>12.602824935166501</v>
       </c>
       <c r="N255" s="19">
-        <v>22.4410035858374</v>
+        <v>22.4594572031423</v>
       </c>
       <c r="O255" s="19">
         <v>12.2302158273381</v>
@@ -18664,13 +18665,13 @@
         <v>59.054630419091197</v>
       </c>
       <c r="Q255" s="19">
-        <v>39.091199365685704</v>
+        <v>39.078628671292797</v>
       </c>
       <c r="R255" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="256" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B256" s="17" t="s">
         <v>843</v>
       </c>
@@ -18717,13 +18718,13 @@
         <v>7.1845272591618201</v>
       </c>
       <c r="Q256" s="19">
-        <v>6.2817564737094198</v>
+        <v>6.3120014027846603</v>
       </c>
       <c r="R256" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="257" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B257" s="17" t="s">
         <v>846</v>
       </c>
@@ -18761,7 +18762,7 @@
         <v>26.459734028949701</v>
       </c>
       <c r="N257" s="19">
-        <v>24.6435741058229</v>
+        <v>24.635228169553901</v>
       </c>
       <c r="O257" s="19">
         <v>12.2302158273381</v>
@@ -18770,13 +18771,13 @@
         <v>38.6210569419896</v>
       </c>
       <c r="Q257" s="19">
-        <v>18.5172236776408</v>
+        <v>18.506686634925899</v>
       </c>
       <c r="R257" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="258" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B258" s="17" t="s">
         <v>849</v>
       </c>
@@ -18814,7 +18815,7 @@
         <v>13.179283296827901</v>
       </c>
       <c r="N258" s="19">
-        <v>16.6193428297304</v>
+        <v>16.656648129560899</v>
       </c>
       <c r="O258" s="19">
         <v>5.0359712230215798</v>
@@ -18823,13 +18824,13 @@
         <v>30.1277376271387</v>
       </c>
       <c r="Q258" s="19">
-        <v>24.222071388879399</v>
+        <v>24.208199109411499</v>
       </c>
       <c r="R258" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="259" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:18" ht="112.2" x14ac:dyDescent="0.3">
       <c r="B259" s="17" t="s">
         <v>852</v>
       </c>
@@ -18867,7 +18868,7 @@
         <v>77.754094826378406</v>
       </c>
       <c r="N259" s="19">
-        <v>83.114814915065196</v>
+        <v>83.220312399359202</v>
       </c>
       <c r="O259" s="19">
         <v>42.4460431654676</v>
@@ -18876,13 +18877,13 @@
         <v>57.339462356776799</v>
       </c>
       <c r="Q259" s="19">
-        <v>35.292524692844601</v>
+        <v>35.327698526141397</v>
       </c>
       <c r="R259" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="260" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B260" s="17" t="s">
         <v>855</v>
       </c>
@@ -18929,13 +18930,13 @@
         <v>2.3385327987145001</v>
       </c>
       <c r="Q260" s="19">
-        <v>1.76269300491005</v>
+        <v>1.7616845867913</v>
       </c>
       <c r="R260" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="261" spans="2:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:18" ht="102" x14ac:dyDescent="0.3">
       <c r="B261" s="17" t="s">
         <v>858</v>
       </c>
@@ -18973,7 +18974,7 @@
         <v>23.304171857197499</v>
       </c>
       <c r="N261" s="19">
-        <v>28.386967758667002</v>
+        <v>28.3946078017823</v>
       </c>
       <c r="O261" s="19">
         <v>13.6690647482014</v>
@@ -18982,13 +18983,13 @@
         <v>14.770247602255299</v>
       </c>
       <c r="Q261" s="19">
-        <v>8.8168078255958804</v>
+        <v>8.8121040000664301</v>
       </c>
       <c r="R261" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="262" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B262" s="17" t="s">
         <v>861</v>
       </c>
@@ -19026,7 +19027,7 @@
         <v>99.821039443282501</v>
       </c>
       <c r="N262" s="19">
-        <v>99.585637293265506</v>
+        <v>99.587687190998295</v>
       </c>
       <c r="O262" s="19">
         <v>94.964028776978395</v>
@@ -19035,13 +19036,13 @@
         <v>99.251065300994597</v>
       </c>
       <c r="Q262" s="19">
-        <v>99.862422882368804</v>
+        <v>99.862082776570105</v>
       </c>
       <c r="R262" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="263" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B263" s="17" t="s">
         <v>865</v>
       </c>
@@ -19079,7 +19080,7 @@
         <v>44.552898750049799</v>
       </c>
       <c r="N263" s="19">
-        <v>61.205192322947099</v>
+        <v>61.186167405573499</v>
       </c>
       <c r="O263" s="19">
         <v>79.856115107913695</v>
@@ -19088,13 +19089,13 @@
         <v>96.910525596567695</v>
       </c>
       <c r="Q263" s="19">
-        <v>97.789970242315803</v>
+        <v>97.777506592000805</v>
       </c>
       <c r="R263" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="264" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B264" s="17" t="s">
         <v>868</v>
       </c>
@@ -19132,7 +19133,7 @@
         <v>12.603349327595399</v>
       </c>
       <c r="N264" s="19">
-        <v>7.7730484748470898</v>
+        <v>7.77399354050113</v>
       </c>
       <c r="O264" s="19">
         <v>18.705035971223001</v>
@@ -19141,13 +19142,13 @@
         <v>25.454746817975298</v>
       </c>
       <c r="Q264" s="19">
-        <v>44.479391452256799</v>
+        <v>44.4914406186791</v>
       </c>
       <c r="R264" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="265" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B265" s="17" t="s">
         <v>871</v>
       </c>
@@ -19185,7 +19186,7 @@
         <v>93.172718103272302</v>
       </c>
       <c r="N265" s="19">
-        <v>95.269769162443694</v>
+        <v>95.360343818000203</v>
       </c>
       <c r="O265" s="19">
         <v>79.136690647481998</v>
@@ -19194,13 +19195,13 @@
         <v>98.006734468152402</v>
       </c>
       <c r="Q265" s="19">
-        <v>96.908822943418997</v>
+        <v>96.911004650635505</v>
       </c>
       <c r="R265" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="266" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B266" s="17" t="s">
         <v>874</v>
       </c>
@@ -19238,7 +19239,7 @@
         <v>83.828277453407395</v>
       </c>
       <c r="N266" s="19">
-        <v>81.691940928737097</v>
+        <v>81.798506653536194</v>
       </c>
       <c r="O266" s="19">
         <v>71.223021582733793</v>
@@ -19247,13 +19248,13 @@
         <v>95.366730412452796</v>
       </c>
       <c r="Q266" s="19">
-        <v>97.119494668495506</v>
+        <v>97.109003965530405</v>
       </c>
       <c r="R266" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="267" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B267" s="17" t="s">
         <v>877</v>
       </c>
@@ -19300,13 +19301,13 @@
         <v>33.741391470958199</v>
       </c>
       <c r="Q267" s="19">
-        <v>39.681629930344997</v>
+        <v>39.667534260572097</v>
       </c>
       <c r="R267" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="268" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B268" s="17" t="s">
         <v>880</v>
       </c>
@@ -19344,7 +19345,7 @@
         <v>4.3806342950248203</v>
       </c>
       <c r="N268" s="19">
-        <v>11.6735086443509</v>
+        <v>11.722304638159599</v>
       </c>
       <c r="O268" s="19">
         <v>21.582733812949598</v>
@@ -19353,13 +19354,13 @@
         <v>72.143764576724394</v>
       </c>
       <c r="Q268" s="19">
-        <v>76.733596680763597</v>
+        <v>76.730642841471806</v>
       </c>
       <c r="R268" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="269" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B269" s="17" t="s">
         <v>883</v>
       </c>
@@ -19397,7 +19398,7 @@
         <v>7.1138796799727002</v>
       </c>
       <c r="N269" s="19">
-        <v>16.027050456976301</v>
+        <v>16.077250477170399</v>
       </c>
       <c r="O269" s="19">
         <v>24.460431654676299</v>
@@ -19406,13 +19407,13 @@
         <v>68.404657114236201</v>
       </c>
       <c r="Q269" s="19">
-        <v>76.141774933801102</v>
+        <v>76.120215692181105</v>
       </c>
       <c r="R269" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="270" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:18" ht="61.2" x14ac:dyDescent="0.3">
       <c r="B270" s="17" t="s">
         <v>886</v>
       </c>
@@ -19459,13 +19460,13 @@
         <v>99.596329087022397</v>
       </c>
       <c r="Q270" s="19">
-        <v>99.998375647417305</v>
+        <v>99.998379303936005</v>
       </c>
       <c r="R270" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="271" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B271" s="17" t="s">
         <v>889</v>
       </c>
@@ -19503,7 +19504,7 @@
         <v>99.821039443282501</v>
       </c>
       <c r="N271" s="19">
-        <v>99.585637293265506</v>
+        <v>99.587687190998295</v>
       </c>
       <c r="O271" s="19">
         <v>94.964028776978395</v>
@@ -19512,13 +19513,13 @@
         <v>99.251065300994597</v>
       </c>
       <c r="Q271" s="19">
-        <v>99.862422882368804</v>
+        <v>99.862082776570105</v>
       </c>
       <c r="R271" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="272" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B272" s="17" t="s">
         <v>893</v>
       </c>
@@ -19556,7 +19557,7 @@
         <v>36.334186130214803</v>
       </c>
       <c r="N272" s="19">
-        <v>55.227134360257203</v>
+        <v>55.206619306398402</v>
       </c>
       <c r="O272" s="19">
         <v>76.258992805755398</v>
@@ -19565,13 +19566,13 @@
         <v>96.748068219340595</v>
       </c>
       <c r="Q272" s="19">
-        <v>97.597944024576407</v>
+        <v>97.585776642969606</v>
       </c>
       <c r="R272" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="273" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B273" s="17" t="s">
         <v>896</v>
       </c>
@@ -19609,7 +19610,7 @@
         <v>3.8728440752368498</v>
       </c>
       <c r="N273" s="19">
-        <v>3.6232243086063298</v>
+        <v>3.6232233847181301</v>
       </c>
       <c r="O273" s="19">
         <v>17.985611510791401</v>
@@ -19618,13 +19619,13 @@
         <v>46.896368573598203</v>
       </c>
       <c r="Q273" s="19">
-        <v>62.354165832263703</v>
+        <v>62.356091717115902</v>
       </c>
       <c r="R273" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="274" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B274" s="17" t="s">
         <v>899</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v>93.112660233278703</v>
       </c>
       <c r="N274" s="19">
-        <v>95.229528904731893</v>
+        <v>95.320098496133696</v>
       </c>
       <c r="O274" s="19">
         <v>78.417266187050402</v>
@@ -19671,13 +19672,13 @@
         <v>97.870647803082605</v>
       </c>
       <c r="Q274" s="19">
-        <v>96.598288925149205</v>
+        <v>96.601385911762506</v>
       </c>
       <c r="R274" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="275" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B275" s="17" t="s">
         <v>902</v>
       </c>
@@ -19715,7 +19716,7 @@
         <v>74.904936216191103</v>
       </c>
       <c r="N275" s="19">
-        <v>79.145218595493901</v>
+        <v>79.222497941883901</v>
       </c>
       <c r="O275" s="19">
         <v>67.625899280575595</v>
@@ -19724,13 +19725,13 @@
         <v>94.852000113632002</v>
       </c>
       <c r="Q275" s="19">
-        <v>96.984633942039096</v>
+        <v>96.974132366981294</v>
       </c>
       <c r="R275" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="276" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B276" s="17" t="s">
         <v>905</v>
       </c>
@@ -19777,13 +19778,13 @@
         <v>34.710452441016997</v>
       </c>
       <c r="Q276" s="19">
-        <v>51.559460241376598</v>
+        <v>51.538302523860999</v>
       </c>
       <c r="R276" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="277" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B277" s="17" t="s">
         <v>908</v>
       </c>
@@ -19821,7 +19822,7 @@
         <v>4.3806342950248203</v>
       </c>
       <c r="N277" s="19">
-        <v>11.6735086443509</v>
+        <v>11.722304638159599</v>
       </c>
       <c r="O277" s="19">
         <v>21.582733812949598</v>
@@ -19830,13 +19831,13 @@
         <v>72.149148238161601</v>
       </c>
       <c r="Q277" s="19">
-        <v>76.353797385341807</v>
+        <v>76.3510613814164</v>
       </c>
       <c r="R277" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="278" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B278" s="17" t="s">
         <v>911</v>
       </c>
@@ -19874,7 +19875,7 @@
         <v>7.1138796799727002</v>
       </c>
       <c r="N278" s="19">
-        <v>16.027050456976301</v>
+        <v>16.077250477170399</v>
       </c>
       <c r="O278" s="19">
         <v>26.6187050359712</v>
@@ -19883,13 +19884,13 @@
         <v>67.127105915148405</v>
       </c>
       <c r="Q278" s="19">
-        <v>76.208945193828797</v>
+        <v>76.175661148718106</v>
       </c>
       <c r="R278" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="279" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B279" s="17" t="s">
         <v>914</v>
       </c>
@@ -19927,7 +19928,7 @@
         <v>91.181538142553507</v>
       </c>
       <c r="N279" s="19">
-        <v>95.698554850426206</v>
+        <v>95.697579954748605</v>
       </c>
       <c r="O279" s="19">
         <v>96.402877697841802</v>
@@ -19936,13 +19937,13 @@
         <v>99.551779817359304</v>
       </c>
       <c r="Q279" s="19">
-        <v>99.965697758440598</v>
+        <v>99.965659696911402</v>
       </c>
       <c r="R279" s="20" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="280" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B280" s="17" t="s">
         <v>917</v>
       </c>
@@ -19980,7 +19981,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N280" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O280" s="19">
         <v>89.928057553956904</v>
@@ -19989,13 +19990,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q280" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R280" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="281" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B281" s="17" t="s">
         <v>923</v>
       </c>
@@ -20033,7 +20034,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N281" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O281" s="19">
         <v>89.928057553956904</v>
@@ -20042,13 +20043,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q281" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R281" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="282" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B282" s="17" t="s">
         <v>926</v>
       </c>
@@ -20086,7 +20087,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N282" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O282" s="19">
         <v>89.928057553956904</v>
@@ -20095,13 +20096,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q282" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R282" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="283" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B283" s="17" t="s">
         <v>929</v>
       </c>
@@ -20139,7 +20140,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N283" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O283" s="19">
         <v>89.928057553956904</v>
@@ -20148,13 +20149,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q283" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R283" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="284" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B284" s="17" t="s">
         <v>932</v>
       </c>
@@ -20192,7 +20193,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N284" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O284" s="19">
         <v>89.928057553956904</v>
@@ -20201,13 +20202,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q284" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R284" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="285" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B285" s="17" t="s">
         <v>935</v>
       </c>
@@ -20245,7 +20246,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N285" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O285" s="19">
         <v>89.928057553956904</v>
@@ -20254,13 +20255,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q285" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R285" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="286" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B286" s="17" t="s">
         <v>938</v>
       </c>
@@ -20298,7 +20299,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N286" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O286" s="19">
         <v>89.928057553956904</v>
@@ -20307,13 +20308,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q286" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R286" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="287" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B287" s="17" t="s">
         <v>941</v>
       </c>
@@ -20351,7 +20352,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N287" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O287" s="19">
         <v>89.928057553956904</v>
@@ -20360,13 +20361,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q287" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R287" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="288" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B288" s="17" t="s">
         <v>944</v>
       </c>
@@ -20404,7 +20405,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N288" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O288" s="19">
         <v>89.928057553956904</v>
@@ -20413,13 +20414,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q288" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R288" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="289" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B289" s="17" t="s">
         <v>947</v>
       </c>
@@ -20457,7 +20458,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N289" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O289" s="19">
         <v>89.928057553956904</v>
@@ -20466,13 +20467,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q289" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R289" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="290" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B290" s="17" t="s">
         <v>950</v>
       </c>
@@ -20510,7 +20511,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N290" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O290" s="19">
         <v>89.928057553956904</v>
@@ -20519,13 +20520,13 @@
         <v>99.954522124043706</v>
       </c>
       <c r="Q290" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R290" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="291" spans="2:18" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:18" ht="71.400000000000006" x14ac:dyDescent="0.3">
       <c r="B291" s="17" t="s">
         <v>953</v>
       </c>
@@ -20563,7 +20564,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N291" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O291" s="19">
         <v>86.330935251798607</v>
@@ -20572,13 +20573,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q291" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R291" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="292" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B292" s="17" t="s">
         <v>956</v>
       </c>
@@ -20616,7 +20617,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N292" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O292" s="19">
         <v>86.330935251798607</v>
@@ -20625,13 +20626,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q292" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R292" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="293" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B293" s="17" t="s">
         <v>959</v>
       </c>
@@ -20669,7 +20670,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N293" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O293" s="19">
         <v>86.330935251798607</v>
@@ -20678,13 +20679,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q293" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R293" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="294" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B294" s="17" t="s">
         <v>962</v>
       </c>
@@ -20722,7 +20723,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N294" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O294" s="19">
         <v>86.330935251798607</v>
@@ -20731,13 +20732,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q294" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R294" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="295" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B295" s="17" t="s">
         <v>965</v>
       </c>
@@ -20775,7 +20776,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N295" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O295" s="19">
         <v>86.330935251798607</v>
@@ -20784,13 +20785,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q295" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R295" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="296" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B296" s="17" t="s">
         <v>968</v>
       </c>
@@ -20828,7 +20829,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N296" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O296" s="19">
         <v>86.330935251798607</v>
@@ -20837,13 +20838,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q296" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R296" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="297" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B297" s="17" t="s">
         <v>971</v>
       </c>
@@ -20881,7 +20882,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N297" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O297" s="19">
         <v>86.330935251798607</v>
@@ -20890,13 +20891,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q297" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R297" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="298" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B298" s="17" t="s">
         <v>974</v>
       </c>
@@ -20934,7 +20935,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N298" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O298" s="19">
         <v>86.330935251798607</v>
@@ -20943,13 +20944,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q298" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R298" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="299" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B299" s="17" t="s">
         <v>977</v>
       </c>
@@ -20987,7 +20988,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N299" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O299" s="19">
         <v>86.330935251798607</v>
@@ -20996,13 +20997,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q299" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R299" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="300" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B300" s="17" t="s">
         <v>980</v>
       </c>
@@ -21040,7 +21041,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N300" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O300" s="19">
         <v>86.330935251798607</v>
@@ -21049,13 +21050,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q300" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R300" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="301" spans="2:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:18" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="B301" s="17" t="s">
         <v>983</v>
       </c>
@@ -21093,7 +21094,7 @@
         <v>99.670632217746203</v>
       </c>
       <c r="N301" s="19">
-        <v>99.515056332230202</v>
+        <v>99.515165918411199</v>
       </c>
       <c r="O301" s="19">
         <v>86.330935251798607</v>
@@ -21102,13 +21103,13 @@
         <v>99.058984117449498</v>
       </c>
       <c r="Q301" s="19">
-        <v>99.9863411049961</v>
+        <v>99.986313756374898</v>
       </c>
       <c r="R301" s="20" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="302" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B302" s="17" t="s">
         <v>986</v>
       </c>
@@ -21161,7 +21162,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="303" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B303" s="17" t="s">
         <v>992</v>
       </c>
@@ -21214,7 +21215,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="304" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B304" s="17" t="s">
         <v>995</v>
       </c>
@@ -21267,7 +21268,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="305" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B305" s="17" t="s">
         <v>998</v>
       </c>
@@ -21320,7 +21321,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="306" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B306" s="17" t="s">
         <v>1001</v>
       </c>
@@ -21373,7 +21374,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="307" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B307" s="17" t="s">
         <v>1004</v>
       </c>
@@ -21426,7 +21427,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="308" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B308" s="17" t="s">
         <v>1007</v>
       </c>
@@ -21479,7 +21480,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="309" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B309" s="17" t="s">
         <v>1010</v>
       </c>
@@ -21532,7 +21533,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="310" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B310" s="17" t="s">
         <v>1013</v>
       </c>
@@ -21585,7 +21586,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="311" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B311" s="17" t="s">
         <v>1016</v>
       </c>
@@ -21638,7 +21639,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="312" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:18" ht="122.4" x14ac:dyDescent="0.3">
       <c r="B312" s="17" t="s">
         <v>1019</v>
       </c>
@@ -21691,7 +21692,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="313" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:18" ht="132.6" x14ac:dyDescent="0.3">
       <c r="B313" s="17" t="s">
         <v>1022</v>
       </c>
@@ -21744,7 +21745,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="314" spans="2:18" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:18" ht="295.8" x14ac:dyDescent="0.3">
       <c r="B314" s="17" t="s">
         <v>1025</v>
       </c>
@@ -21791,13 +21792,13 @@
         <v>99.997507447122103</v>
       </c>
       <c r="Q314" s="19">
-        <v>99.994604624668597</v>
+        <v>99.994607306844699</v>
       </c>
       <c r="R314" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="315" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B315" s="17" t="s">
         <v>1031</v>
       </c>
@@ -21844,13 +21845,13 @@
         <v>99.285070063052999</v>
       </c>
       <c r="Q315" s="19">
-        <v>99.993883354179005</v>
+        <v>99.993881414916501</v>
       </c>
       <c r="R315" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="316" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B316" s="17" t="s">
         <v>1034</v>
       </c>
@@ -21903,7 +21904,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="317" spans="2:18" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:18" ht="295.8" x14ac:dyDescent="0.3">
       <c r="B317" s="17" t="s">
         <v>1037</v>
       </c>
@@ -21956,7 +21957,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="318" spans="2:18" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:18" ht="306" x14ac:dyDescent="0.3">
       <c r="B318" s="17" t="s">
         <v>1040</v>
       </c>
@@ -22009,7 +22010,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="319" spans="2:18" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:18" ht="306" x14ac:dyDescent="0.3">
       <c r="B319" s="17" t="s">
         <v>1043</v>
       </c>
@@ -22056,13 +22057,13 @@
         <v>99.595665604554398</v>
       </c>
       <c r="Q319" s="19">
-        <v>99.999917712588299</v>
+        <v>99.999917605910596</v>
       </c>
       <c r="R319" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="320" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B320" s="17" t="s">
         <v>1046</v>
       </c>
@@ -22115,7 +22116,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="321" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B321" s="17" t="s">
         <v>1049</v>
       </c>
@@ -22153,7 +22154,7 @@
         <v>92.362023936392603</v>
       </c>
       <c r="N321" s="19">
-        <v>85.734471627083906</v>
+        <v>85.737457331766194</v>
       </c>
       <c r="O321" s="19">
         <v>79.136690647481998</v>
@@ -22162,13 +22163,13 @@
         <v>97.472827920441901</v>
       </c>
       <c r="Q321" s="19">
-        <v>99.023793657794101</v>
+        <v>99.025169985392097</v>
       </c>
       <c r="R321" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="322" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B322" s="17" t="s">
         <v>1052</v>
       </c>
@@ -22221,7 +22222,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="323" spans="2:18" ht="315" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:18" ht="295.8" x14ac:dyDescent="0.3">
       <c r="B323" s="17" t="s">
         <v>1055</v>
       </c>
@@ -22274,7 +22275,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="324" spans="2:18" ht="262.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:18" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B324" s="17" t="s">
         <v>1058</v>
       </c>
@@ -22312,7 +22313,7 @@
         <v>95.900578748480697</v>
       </c>
       <c r="N324" s="19">
-        <v>96.9872749303576</v>
+        <v>96.989068498585098</v>
       </c>
       <c r="O324" s="19">
         <v>96.402877697841802</v>
@@ -22321,13 +22322,13 @@
         <v>99.5933610154039</v>
       </c>
       <c r="Q324" s="19">
-        <v>99.994604624668597</v>
+        <v>99.994607306844699</v>
       </c>
       <c r="R324" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="325" spans="2:18" ht="262.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:18" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B325" s="17" t="s">
         <v>1061</v>
       </c>
@@ -22380,7 +22381,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="326" spans="2:18" ht="262.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:18" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B326" s="17" t="s">
         <v>1064</v>
       </c>
@@ -22433,7 +22434,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="327" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B327" s="17" t="s">
         <v>1067</v>
       </c>
@@ -22471,7 +22472,7 @@
         <v>79.328628008208</v>
       </c>
       <c r="N327" s="19">
-        <v>90.346817627746404</v>
+        <v>90.348465679007006</v>
       </c>
       <c r="O327" s="19">
         <v>78.417266187050402</v>
@@ -22480,13 +22481,13 @@
         <v>99.141235439295997</v>
       </c>
       <c r="Q327" s="19">
-        <v>99.901753397965606</v>
+        <v>99.901771414423706</v>
       </c>
       <c r="R327" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="328" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B328" s="17" t="s">
         <v>1070</v>
       </c>
@@ -22533,13 +22534,13 @@
         <v>99.103088528683699</v>
       </c>
       <c r="Q328" s="19">
-        <v>99.982818723205796</v>
+        <v>99.982802705647302</v>
       </c>
       <c r="R328" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="329" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B329" s="17" t="s">
         <v>1073</v>
       </c>
@@ -22586,13 +22587,13 @@
         <v>99.287177923981602</v>
       </c>
       <c r="Q329" s="19">
-        <v>99.994292868341205</v>
+        <v>99.994290913541107</v>
       </c>
       <c r="R329" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="330" spans="2:18" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:18" ht="295.8" x14ac:dyDescent="0.3">
       <c r="B330" s="17" t="s">
         <v>1076</v>
       </c>
@@ -22639,13 +22640,13 @@
         <v>99.997507447122103</v>
       </c>
       <c r="Q330" s="19">
-        <v>99.994604624668597</v>
+        <v>99.994607306844699</v>
       </c>
       <c r="R330" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="331" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:18" ht="265.2" x14ac:dyDescent="0.3">
       <c r="B331" s="17" t="s">
         <v>1079</v>
       </c>
@@ -22683,7 +22684,7 @@
         <v>98.917081061607803</v>
       </c>
       <c r="N331" s="19">
-        <v>99.819356024007305</v>
+        <v>99.819454933531006</v>
       </c>
       <c r="O331" s="19">
         <v>90.647482014388501</v>
@@ -22692,13 +22693,13 @@
         <v>98.684286963634506</v>
       </c>
       <c r="Q331" s="19">
-        <v>99.925999288068596</v>
+        <v>99.926044713179607</v>
       </c>
       <c r="R331" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="332" spans="2:18" ht="315" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B332" s="17" t="s">
         <v>1082</v>
       </c>
@@ -22736,7 +22737,7 @@
         <v>95.900578748480697</v>
       </c>
       <c r="N332" s="19">
-        <v>96.9872749303576</v>
+        <v>96.989068498585098</v>
       </c>
       <c r="O332" s="19">
         <v>100</v>
@@ -22751,7 +22752,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="333" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:18" ht="285.60000000000002" x14ac:dyDescent="0.3">
       <c r="B333" s="17" t="s">
         <v>1085</v>
       </c>
@@ -22789,7 +22790,7 @@
         <v>89.075950020950799</v>
       </c>
       <c r="N333" s="19">
-        <v>82.809874647488996</v>
+        <v>82.814606248107594</v>
       </c>
       <c r="O333" s="19">
         <v>75.539568345323801</v>
@@ -22798,13 +22799,13 @@
         <v>96.872423995755099</v>
       </c>
       <c r="Q333" s="19">
-        <v>98.956138162063297</v>
+        <v>98.957556571637696</v>
       </c>
       <c r="R333" s="20" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="334" spans="2:18" ht="252" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B334" s="17" t="s">
         <v>1088</v>
       </c>
@@ -22857,7 +22858,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="335" spans="2:18" ht="273" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:18" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B335" s="17" t="s">
         <v>1094</v>
       </c>
@@ -22910,7 +22911,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="336" spans="2:18" ht="252" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B336" s="17" t="s">
         <v>1098</v>
       </c>
@@ -22963,7 +22964,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="337" spans="2:18" ht="346.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:18" ht="326.39999999999998" x14ac:dyDescent="0.3">
       <c r="B337" s="17" t="s">
         <v>1101</v>
       </c>
@@ -23001,7 +23002,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N337" s="19">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O337" s="19">
         <v>95.683453237410106</v>
@@ -23010,13 +23011,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q337" s="19">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R337" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="338" spans="2:18" ht="336" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:18" ht="316.2" x14ac:dyDescent="0.3">
       <c r="B338" s="17" t="s">
         <v>1104</v>
       </c>
@@ -23054,7 +23055,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N338" s="19">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O338" s="19">
         <v>95.683453237410106</v>
@@ -23063,13 +23064,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q338" s="19">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R338" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="339" spans="2:18" ht="346.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:18" ht="326.39999999999998" x14ac:dyDescent="0.3">
       <c r="B339" s="17" t="s">
         <v>1107</v>
       </c>
@@ -23107,7 +23108,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N339" s="19">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O339" s="19">
         <v>95.683453237410106</v>
@@ -23116,13 +23117,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q339" s="19">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R339" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="340" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:18" ht="265.2" x14ac:dyDescent="0.3">
       <c r="B340" s="17" t="s">
         <v>1110</v>
       </c>
@@ -23175,7 +23176,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="341" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:18" ht="265.2" x14ac:dyDescent="0.3">
       <c r="B341" s="17" t="s">
         <v>1113</v>
       </c>
@@ -23228,7 +23229,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="342" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B342" s="17" t="s">
         <v>1116</v>
       </c>
@@ -23281,7 +23282,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="343" spans="2:18" ht="378" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:18" ht="357" x14ac:dyDescent="0.3">
       <c r="B343" s="17" t="s">
         <v>1119</v>
       </c>
@@ -23319,7 +23320,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N343" s="19">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O343" s="19">
         <v>95.683453237410106</v>
@@ -23328,13 +23329,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q343" s="19">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R343" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="344" spans="2:18" ht="378" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:18" ht="357" x14ac:dyDescent="0.3">
       <c r="B344" s="17" t="s">
         <v>1122</v>
       </c>
@@ -23372,7 +23373,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N344" s="19">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O344" s="19">
         <v>95.683453237410106</v>
@@ -23381,13 +23382,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q344" s="19">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R344" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="345" spans="2:18" ht="378" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:18" ht="357" x14ac:dyDescent="0.3">
       <c r="B345" s="17" t="s">
         <v>1125</v>
       </c>
@@ -23425,7 +23426,7 @@
         <v>95.902075833189102</v>
       </c>
       <c r="N345" s="19">
-        <v>97.141470057497401</v>
+        <v>97.142045986734502</v>
       </c>
       <c r="O345" s="19">
         <v>95.683453237410106</v>
@@ -23434,13 +23435,13 @@
         <v>99.103267706072401</v>
       </c>
       <c r="Q345" s="19">
-        <v>99.996410969525797</v>
+        <v>99.996413200528096</v>
       </c>
       <c r="R345" s="20" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="346" spans="2:18" ht="262.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B346" s="17" t="s">
         <v>1128</v>
       </c>
@@ -23493,7 +23494,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="347" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:18" ht="255" x14ac:dyDescent="0.3">
       <c r="B347" s="17" t="s">
         <v>1131</v>
       </c>
@@ -23546,7 +23547,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="348" spans="2:18" ht="294" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:18" ht="255" x14ac:dyDescent="0.3">
       <c r="B348" s="17" t="s">
         <v>1134</v>
       </c>
@@ -23599,7 +23600,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="349" spans="2:18" ht="399" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:18" ht="367.2" x14ac:dyDescent="0.3">
       <c r="B349" s="17" t="s">
         <v>1137</v>
       </c>
@@ -23652,7 +23653,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="350" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B350" s="17" t="s">
         <v>1140</v>
       </c>
@@ -23705,7 +23706,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="351" spans="2:18" ht="283.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:18" ht="255" x14ac:dyDescent="0.3">
       <c r="B351" s="17" t="s">
         <v>1143</v>
       </c>
@@ -23758,7 +23759,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="352" spans="2:18" ht="231" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:18" ht="204" x14ac:dyDescent="0.3">
       <c r="B352" s="17" t="s">
         <v>1146</v>
       </c>
@@ -23811,7 +23812,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="353" spans="2:18" ht="210" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:18" ht="183.6" x14ac:dyDescent="0.3">
       <c r="B353" s="17" t="s">
         <v>1149</v>
       </c>
@@ -23864,7 +23865,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="354" spans="2:18" ht="252" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:18" ht="224.4" x14ac:dyDescent="0.3">
       <c r="B354" s="17" t="s">
         <v>1152</v>
       </c>
@@ -23917,7 +23918,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="355" spans="2:18" ht="262.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:18" ht="234.6" x14ac:dyDescent="0.3">
       <c r="B355" s="17" t="s">
         <v>1155</v>
       </c>
@@ -23970,7 +23971,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="356" spans="2:18" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:18" ht="275.39999999999998" x14ac:dyDescent="0.3">
       <c r="B356" s="17" t="s">
         <v>1158</v>
       </c>
@@ -24023,7 +24024,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="357" spans="2:18" ht="346.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:18" ht="316.2" x14ac:dyDescent="0.3">
       <c r="B357" s="17" t="s">
         <v>1161</v>
       </c>
@@ -24076,7 +24077,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="358" spans="2:18" ht="346.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:18" ht="306" x14ac:dyDescent="0.3">
       <c r="B358" s="17" t="s">
         <v>1164</v>
       </c>
@@ -24129,7 +24130,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="359" spans="2:18" ht="220.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:18" ht="214.2" x14ac:dyDescent="0.3">
       <c r="B359" s="17" t="s">
         <v>1167</v>
       </c>
@@ -24167,7 +24168,7 @@
         <v>71.341813442308094</v>
       </c>
       <c r="N359" s="19">
-        <v>64.682082058817898</v>
+        <v>64.672289579366705</v>
       </c>
       <c r="O359" s="19">
         <v>62.589928057553998</v>
@@ -24176,13 +24177,13 @@
         <v>59.020559840981903</v>
       </c>
       <c r="Q359" s="19">
-        <v>47.250730160411102</v>
+        <v>47.291315261804897</v>
       </c>
       <c r="R359" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="360" spans="2:18" ht="220.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:18" ht="214.2" x14ac:dyDescent="0.3">
       <c r="B360" s="17" t="s">
         <v>1171</v>
       </c>
@@ -24220,7 +24221,7 @@
         <v>71.341813442308094</v>
       </c>
       <c r="N360" s="19">
-        <v>64.682082058817898</v>
+        <v>64.672289579366705</v>
       </c>
       <c r="O360" s="19">
         <v>62.589928057553998</v>
@@ -24229,13 +24230,13 @@
         <v>59.020559840981903</v>
       </c>
       <c r="Q360" s="19">
-        <v>47.250730160411102</v>
+        <v>47.291315261804897</v>
       </c>
       <c r="R360" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="361" spans="2:18" ht="220.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:18" ht="214.2" x14ac:dyDescent="0.3">
       <c r="B361" s="17" t="s">
         <v>1174</v>
       </c>
@@ -24273,7 +24274,7 @@
         <v>71.341813442308094</v>
       </c>
       <c r="N361" s="19">
-        <v>64.682082058817898</v>
+        <v>64.672289579366705</v>
       </c>
       <c r="O361" s="19">
         <v>62.589928057553998</v>
@@ -24282,13 +24283,13 @@
         <v>59.020559840981903</v>
       </c>
       <c r="Q361" s="19">
-        <v>47.250730160411102</v>
+        <v>47.291315261804897</v>
       </c>
       <c r="R361" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="362" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B362" s="17" t="s">
         <v>1177</v>
       </c>
@@ -24326,7 +24327,7 @@
         <v>89.019456371986394</v>
       </c>
       <c r="N362" s="19">
-        <v>91.010888926297696</v>
+        <v>90.982535081078595</v>
       </c>
       <c r="O362" s="19">
         <v>65.467625899280605</v>
@@ -24335,13 +24336,13 @@
         <v>95.740366480682397</v>
       </c>
       <c r="Q362" s="19">
-        <v>98.428229155675893</v>
+        <v>98.425126789466802</v>
       </c>
       <c r="R362" s="20" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="363" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B363" s="17" t="s">
         <v>1182</v>
       </c>
@@ -24379,7 +24380,7 @@
         <v>95.016854650736803</v>
       </c>
       <c r="N363" s="19">
-        <v>94.162426870926197</v>
+        <v>94.163370755078802</v>
       </c>
       <c r="O363" s="19">
         <v>76.978417266187094</v>
@@ -24388,13 +24389,13 @@
         <v>97.243426309240704</v>
       </c>
       <c r="Q363" s="19">
-        <v>99.120530627107797</v>
+        <v>99.121030564837298</v>
       </c>
       <c r="R363" s="21" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="364" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B364" s="17" t="s">
         <v>1186</v>
       </c>
@@ -24432,7 +24433,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N364" s="19">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O364" s="19">
         <v>46.043165467625897</v>
@@ -24441,13 +24442,13 @@
         <v>49.120136059470198</v>
       </c>
       <c r="Q364" s="19">
-        <v>25.4775228055538</v>
+        <v>25.457942825384499</v>
       </c>
       <c r="R364" s="21" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="365" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B365" s="17" t="s">
         <v>1189</v>
       </c>
@@ -24485,7 +24486,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N365" s="19">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O365" s="19">
         <v>45.3237410071943</v>
@@ -24494,13 +24495,13 @@
         <v>48.959819794957703</v>
       </c>
       <c r="Q365" s="19">
-        <v>25.021984324279</v>
+        <v>25.001888320700001</v>
       </c>
       <c r="R365" s="21" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="366" spans="2:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:18" ht="51" x14ac:dyDescent="0.3">
       <c r="B366" s="17" t="s">
         <v>1192</v>
       </c>
@@ -24538,7 +24539,7 @@
         <v>84.719309178310994</v>
       </c>
       <c r="N366" s="19">
-        <v>70.761570444903199</v>
+        <v>70.7375852193085</v>
       </c>
       <c r="O366" s="19">
         <v>45.3237410071943</v>
@@ -24547,13 +24548,13 @@
         <v>48.959819794957703</v>
       </c>
       <c r="Q366" s="19">
-        <v>25.021984324279</v>
+        <v>25.001888320700001</v>
       </c>
       <c r="R366" s="21" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="367" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B367" s="17"/>
       <c r="C367" s="12"/>
       <c r="D367" s="18"/>
@@ -24572,7 +24573,7 @@
       <c r="Q367" s="19"/>
       <c r="R367" s="20"/>
     </row>
-    <row r="368" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B368" s="2" t="s">
         <v>1195</v>
       </c>
@@ -24585,15 +24586,15 @@
       <c r="N368"/>
       <c r="O368"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B369" r:id="rId1" xr:uid="{FA57A1D1-302C-468A-8D7E-3BE28CD206B3}"/>
-    <hyperlink ref="B368" r:id="rId2" xr:uid="{40D4DE08-5597-4339-B59C-8B49D55D5BC9}"/>
+    <hyperlink ref="B369" r:id="rId1" xr:uid="{E3713C93-0DF9-4774-B1FE-CB191D25BF82}"/>
+    <hyperlink ref="B368" r:id="rId2" xr:uid="{F960795C-FD9E-40E8-ADAD-189AFD3A68E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
